--- a/spxoptions20240412.xlsx
+++ b/spxoptions20240412.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Scripts\FINN6212\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Python Scripts\calibration_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559CF0A1-CBDB-4E7E-A702-41D575E0AE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BF05442-7DF2-4BAE-99A2-0A78A7FF269A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A7D2E869-819C-CF44-83DF-7BCB78C93825}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" activeTab="3" xr2:uid="{A7D2E869-819C-CF44-83DF-7BCB78C93825}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="calibration_sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="termrates" sheetId="3" r:id="rId3"/>
+    <sheet name="american_valuation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>strike</t>
   </si>
@@ -94,21 +95,6 @@
     <t>label</t>
   </si>
   <si>
-    <t>3m</t>
-  </si>
-  <si>
-    <t>6m</t>
-  </si>
-  <si>
-    <t>9m</t>
-  </si>
-  <si>
-    <t>12m</t>
-  </si>
-  <si>
-    <t>15m</t>
-  </si>
-  <si>
     <t>exptimes</t>
   </si>
   <si>
@@ -116,6 +102,21 @@
   </si>
   <si>
     <t>price_date</t>
+  </si>
+  <si>
+    <t>03-21-2025</t>
+  </si>
+  <si>
+    <t>09-20-2024</t>
+  </si>
+  <si>
+    <t>06-21-2024</t>
+  </si>
+  <si>
+    <t>12-20-2024</t>
+  </si>
+  <si>
+    <t>06-20-2025</t>
   </si>
 </sst>
 </file>
@@ -125,8 +126,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000%"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -179,7 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -196,8 +197,9 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -535,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D240E66F-3BE1-7A4E-BE45-D3255DF9A330}">
   <dimension ref="A1:M99"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="O85" sqref="O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -641,7 +643,7 @@
         <v>45464</v>
       </c>
       <c r="C3" s="8">
-        <f t="shared" ref="C3:C11" si="0">(B3-A3)/365.25</f>
+        <f t="shared" ref="C3:C66" si="0">(B3-A3)/365.25</f>
         <v>0.19164955509924708</v>
       </c>
       <c r="D3" s="4">
@@ -1028,7 +1030,7 @@
         <v>45555</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" ref="C12:C43" si="2">(B12-A12)/365.25</f>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D12" s="4">
@@ -1071,7 +1073,7 @@
         <v>45555</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D13" s="4">
@@ -1087,7 +1089,7 @@
         <v>385.5</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" ref="H13:H21" si="3">0.5*(F13+G13)</f>
+        <f t="shared" ref="H13:H49" si="2">0.5*(F13+G13)</f>
         <v>380.8</v>
       </c>
       <c r="I13" s="1">
@@ -1114,7 +1116,7 @@
         <v>45555</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D14" s="4">
@@ -1130,7 +1132,7 @@
         <v>348.2</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>343.7</v>
       </c>
       <c r="I14" s="1">
@@ -1157,7 +1159,7 @@
         <v>45555</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D15" s="4">
@@ -1173,7 +1175,7 @@
         <v>291.60000000000002</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>290.85000000000002</v>
       </c>
       <c r="I15" s="1">
@@ -1200,7 +1202,7 @@
         <v>45555</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D16" s="4">
@@ -1216,7 +1218,7 @@
         <v>274.8</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>274.10000000000002</v>
       </c>
       <c r="I16" s="1">
@@ -1243,7 +1245,7 @@
         <v>45555</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D17" s="4">
@@ -1259,7 +1261,7 @@
         <v>212.3</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>211.65</v>
       </c>
       <c r="I17" s="1">
@@ -1286,7 +1288,7 @@
         <v>45555</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D18" s="4">
@@ -1302,7 +1304,7 @@
         <v>197.9</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>197.25</v>
       </c>
       <c r="I18" s="1">
@@ -1329,7 +1331,7 @@
         <v>45555</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D19" s="4">
@@ -1345,7 +1347,7 @@
         <v>184</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>183.35</v>
       </c>
       <c r="I19" s="1">
@@ -1372,7 +1374,7 @@
         <v>45555</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D20" s="4">
@@ -1388,7 +1390,7 @@
         <v>157.9</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>157.25</v>
       </c>
       <c r="I20" s="1">
@@ -1415,7 +1417,7 @@
         <v>45555</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D21" s="4">
@@ -1431,7 +1433,7 @@
         <v>134</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>133.4</v>
       </c>
       <c r="I21" s="1">
@@ -1458,7 +1460,7 @@
         <v>45646</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.68993839835728954</v>
       </c>
       <c r="D22" s="4">
@@ -1474,7 +1476,7 @@
         <v>538.6</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" ref="H22:H47" si="4">0.5*(F22+G22)</f>
+        <f t="shared" si="2"/>
         <v>532.40000000000009</v>
       </c>
       <c r="I22" s="1">
@@ -1501,7 +1503,7 @@
         <v>45646</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.68993839835728954</v>
       </c>
       <c r="D23" s="4">
@@ -1517,7 +1519,7 @@
         <v>514.29999999999995</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>513.34999999999991</v>
       </c>
       <c r="I23" s="1">
@@ -1544,7 +1546,7 @@
         <v>45646</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.68993839835728954</v>
       </c>
       <c r="D24" s="4">
@@ -1560,7 +1562,7 @@
         <v>481.4</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>476.65</v>
       </c>
       <c r="I24" s="1">
@@ -1587,7 +1589,7 @@
         <v>45646</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.68993839835728954</v>
       </c>
       <c r="D25" s="4">
@@ -1603,7 +1605,7 @@
         <v>442.1</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>441.25</v>
       </c>
       <c r="I25" s="1">
@@ -1630,7 +1632,7 @@
         <v>45646</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.68993839835728954</v>
       </c>
       <c r="D26" s="4">
@@ -1646,7 +1648,7 @@
         <v>342.1</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>341.25</v>
       </c>
       <c r="I26" s="1">
@@ -1673,7 +1675,7 @@
         <v>45646</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.68993839835728954</v>
       </c>
       <c r="D27" s="4">
@@ -1689,7 +1691,7 @@
         <v>311.2</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>310.39999999999998</v>
       </c>
       <c r="I27" s="1">
@@ -1716,7 +1718,7 @@
         <v>45646</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.68993839835728954</v>
       </c>
       <c r="D28" s="4">
@@ -1732,7 +1734,7 @@
         <v>281.7</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>280.89999999999998</v>
       </c>
       <c r="I28" s="1">
@@ -1759,7 +1761,7 @@
         <v>45646</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.68993839835728954</v>
       </c>
       <c r="D29" s="4">
@@ -1775,7 +1777,7 @@
         <v>267.39999999999998</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>266.60000000000002</v>
       </c>
       <c r="I29" s="1">
@@ -1802,7 +1804,7 @@
         <v>45646</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.68993839835728954</v>
       </c>
       <c r="D30" s="4">
@@ -1818,7 +1820,7 @@
         <v>240.1</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>239.3</v>
       </c>
       <c r="I30" s="1">
@@ -1845,7 +1847,7 @@
         <v>45646</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.68993839835728954</v>
       </c>
       <c r="D31" s="4">
@@ -1861,7 +1863,7 @@
         <v>201.9</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>201.15</v>
       </c>
       <c r="I31" s="1">
@@ -1888,7 +1890,7 @@
         <v>45737</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D32" s="4">
@@ -1904,7 +1906,7 @@
         <v>602.79999999999995</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>594.9</v>
       </c>
       <c r="I32" s="1">
@@ -1931,7 +1933,7 @@
         <v>45737</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D33" s="4">
@@ -1947,7 +1949,7 @@
         <v>567.1</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>559.15000000000009</v>
       </c>
       <c r="I33" s="1">
@@ -1974,7 +1976,7 @@
         <v>45737</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D34" s="4">
@@ -1990,7 +1992,7 @@
         <v>532.1</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>524.15000000000009</v>
       </c>
       <c r="I34" s="1">
@@ -2017,7 +2019,7 @@
         <v>45737</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D35" s="4">
@@ -2033,7 +2035,7 @@
         <v>497.1</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>489.55</v>
       </c>
       <c r="I35" s="1">
@@ -2060,7 +2062,7 @@
         <v>45737</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D36" s="4">
@@ -2076,7 +2078,7 @@
         <v>393.4</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>392</v>
       </c>
       <c r="I36" s="1">
@@ -2103,7 +2105,7 @@
         <v>45737</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D37" s="4">
@@ -2119,7 +2121,7 @@
         <v>305.89999999999998</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>304.60000000000002</v>
       </c>
       <c r="I37" s="1">
@@ -2146,7 +2148,7 @@
         <v>45737</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D38" s="4">
@@ -2162,7 +2164,7 @@
         <v>279.10000000000002</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>277.89999999999998</v>
       </c>
       <c r="I38" s="1">
@@ -2189,36 +2191,36 @@
         <v>45737</v>
       </c>
       <c r="C39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.93908281998631071</v>
+      </c>
+      <c r="D39" s="4">
+        <v>5450</v>
+      </c>
+      <c r="E39" s="9">
+        <v>250.15</v>
+      </c>
+      <c r="F39" s="9">
+        <v>251.3</v>
+      </c>
+      <c r="G39" s="9">
+        <v>253.7</v>
+      </c>
+      <c r="H39" s="6">
         <f t="shared" si="2"/>
-        <v>0.93908281998631071</v>
-      </c>
-      <c r="D39" s="4">
-        <v>5425</v>
-      </c>
-      <c r="E39" s="9">
-        <v>281.99</v>
-      </c>
-      <c r="F39" s="9">
-        <v>262.7</v>
-      </c>
-      <c r="G39" s="9">
-        <v>268.60000000000002</v>
-      </c>
-      <c r="H39" s="6">
-        <f t="shared" si="4"/>
-        <v>265.64999999999998</v>
+        <v>252.5</v>
       </c>
       <c r="I39" s="1">
         <v>0</v>
       </c>
       <c r="J39" s="1">
-        <v>17</v>
-      </c>
-      <c r="K39" s="1">
-        <v>374</v>
+        <v>22</v>
+      </c>
+      <c r="K39" s="3">
+        <v>1940</v>
       </c>
       <c r="L39" s="2">
-        <v>0.1971</v>
+        <v>0.1938</v>
       </c>
       <c r="M39" s="11">
         <v>5.0618083580326718E-2</v>
@@ -2232,36 +2234,36 @@
         <v>45737</v>
       </c>
       <c r="C40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.93908281998631071</v>
+      </c>
+      <c r="D40" s="4">
+        <v>5500</v>
+      </c>
+      <c r="E40" s="9">
+        <v>230.1</v>
+      </c>
+      <c r="F40" s="9">
+        <v>227.2</v>
+      </c>
+      <c r="G40" s="9">
+        <v>229.6</v>
+      </c>
+      <c r="H40" s="6">
         <f t="shared" si="2"/>
-        <v>0.93908281998631071</v>
-      </c>
-      <c r="D40" s="4">
-        <v>5450</v>
-      </c>
-      <c r="E40" s="9">
-        <v>250.15</v>
-      </c>
-      <c r="F40" s="9">
-        <v>251.3</v>
-      </c>
-      <c r="G40" s="9">
-        <v>253.7</v>
-      </c>
-      <c r="H40" s="6">
-        <f t="shared" si="4"/>
-        <v>252.5</v>
+        <v>228.39999999999998</v>
       </c>
       <c r="I40" s="1">
         <v>0</v>
       </c>
-      <c r="J40" s="1">
-        <v>22</v>
+      <c r="J40" s="3">
+        <v>1070</v>
       </c>
       <c r="K40" s="3">
-        <v>1940</v>
+        <v>15778</v>
       </c>
       <c r="L40" s="2">
-        <v>0.1938</v>
+        <v>0.1898</v>
       </c>
       <c r="M40" s="11">
         <v>5.0618083580326718E-2</v>
@@ -2272,42 +2274,42 @@
         <v>45394</v>
       </c>
       <c r="B41" s="7">
-        <v>45737</v>
+        <v>45828</v>
       </c>
       <c r="C41" s="8">
+        <f t="shared" si="0"/>
+        <v>1.1882272416153319</v>
+      </c>
+      <c r="D41" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="9">
+        <v>621.5</v>
+      </c>
+      <c r="F41" s="9">
+        <v>586.70000000000005</v>
+      </c>
+      <c r="G41" s="9">
+        <v>604.20000000000005</v>
+      </c>
+      <c r="H41" s="6">
         <f t="shared" si="2"/>
-        <v>0.93908281998631071</v>
-      </c>
-      <c r="D41" s="4">
-        <v>5500</v>
-      </c>
-      <c r="E41" s="9">
-        <v>230.1</v>
-      </c>
-      <c r="F41" s="9">
-        <v>227.2</v>
-      </c>
-      <c r="G41" s="9">
-        <v>229.6</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" si="4"/>
-        <v>228.39999999999998</v>
+        <v>595.45000000000005</v>
       </c>
       <c r="I41" s="1">
         <v>0</v>
       </c>
-      <c r="J41" s="3">
-        <v>1070</v>
+      <c r="J41" s="1">
+        <v>1</v>
       </c>
       <c r="K41" s="3">
-        <v>15778</v>
+        <v>6144</v>
       </c>
       <c r="L41" s="2">
-        <v>0.1898</v>
+        <v>0.246</v>
       </c>
       <c r="M41" s="11">
-        <v>5.0618083580326718E-2</v>
+        <v>4.949167664058407E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="18">
@@ -2318,24 +2320,24 @@
         <v>45828</v>
       </c>
       <c r="C42" s="8">
+        <f t="shared" si="0"/>
+        <v>1.1882272416153319</v>
+      </c>
+      <c r="D42" s="4">
+        <v>5150</v>
+      </c>
+      <c r="E42" s="9">
+        <v>498.83</v>
+      </c>
+      <c r="F42" s="9">
+        <v>495.5</v>
+      </c>
+      <c r="G42" s="9">
+        <v>498.7</v>
+      </c>
+      <c r="H42" s="6">
         <f t="shared" si="2"/>
-        <v>1.1882272416153319</v>
-      </c>
-      <c r="D42" s="4">
-        <v>5000</v>
-      </c>
-      <c r="E42" s="9">
-        <v>621.5</v>
-      </c>
-      <c r="F42" s="9">
-        <v>586.70000000000005</v>
-      </c>
-      <c r="G42" s="9">
-        <v>604.20000000000005</v>
-      </c>
-      <c r="H42" s="6">
-        <f t="shared" si="4"/>
-        <v>595.45000000000005</v>
+        <v>497.1</v>
       </c>
       <c r="I42" s="1">
         <v>0</v>
@@ -2344,10 +2346,10 @@
         <v>1</v>
       </c>
       <c r="K42" s="3">
-        <v>6144</v>
+        <v>2307</v>
       </c>
       <c r="L42" s="2">
-        <v>0.246</v>
+        <v>0.2296</v>
       </c>
       <c r="M42" s="11">
         <v>4.949167664058407E-2</v>
@@ -2361,36 +2363,36 @@
         <v>45828</v>
       </c>
       <c r="C43" s="8">
+        <f t="shared" si="0"/>
+        <v>1.1882272416153319</v>
+      </c>
+      <c r="D43" s="4">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="9">
+        <v>467.33</v>
+      </c>
+      <c r="F43" s="9">
+        <v>464.2</v>
+      </c>
+      <c r="G43" s="9">
+        <v>467.3</v>
+      </c>
+      <c r="H43" s="6">
         <f t="shared" si="2"/>
-        <v>1.1882272416153319</v>
-      </c>
-      <c r="D43" s="4">
-        <v>5150</v>
-      </c>
-      <c r="E43" s="9">
-        <v>498.83</v>
-      </c>
-      <c r="F43" s="9">
-        <v>495.5</v>
-      </c>
-      <c r="G43" s="9">
-        <v>498.7</v>
-      </c>
-      <c r="H43" s="6">
-        <f t="shared" si="4"/>
-        <v>497.1</v>
+        <v>465.75</v>
       </c>
       <c r="I43" s="1">
         <v>0</v>
       </c>
       <c r="J43" s="1">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="K43" s="3">
-        <v>2307</v>
+        <v>3247</v>
       </c>
       <c r="L43" s="2">
-        <v>0.2296</v>
+        <v>0.22520000000000001</v>
       </c>
       <c r="M43" s="11">
         <v>4.949167664058407E-2</v>
@@ -2404,36 +2406,36 @@
         <v>45828</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" ref="C44:C75" si="5">(B44-A44)/365.25</f>
+        <f t="shared" si="0"/>
         <v>1.1882272416153319</v>
       </c>
       <c r="D44" s="4">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="E44" s="9">
-        <v>467.33</v>
+        <v>403.47</v>
       </c>
       <c r="F44" s="9">
-        <v>464.2</v>
+        <v>404.1</v>
       </c>
       <c r="G44" s="9">
-        <v>467.3</v>
+        <v>407.1</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="4"/>
-        <v>465.75</v>
+        <f t="shared" si="2"/>
+        <v>405.6</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
       </c>
       <c r="J44" s="1">
-        <v>268</v>
+        <v>63</v>
       </c>
       <c r="K44" s="3">
-        <v>3247</v>
+        <v>2263</v>
       </c>
       <c r="L44" s="2">
-        <v>0.22520000000000001</v>
+        <v>0.2167</v>
       </c>
       <c r="M44" s="11">
         <v>4.949167664058407E-2</v>
@@ -2447,36 +2449,36 @@
         <v>45828</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.1882272416153319</v>
       </c>
       <c r="D45" s="4">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E45" s="9">
-        <v>403.47</v>
+        <v>345.38</v>
       </c>
       <c r="F45" s="9">
-        <v>404.1</v>
+        <v>347.9</v>
       </c>
       <c r="G45" s="9">
-        <v>407.1</v>
+        <v>350.7</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="4"/>
-        <v>405.6</v>
+        <f t="shared" si="2"/>
+        <v>349.29999999999995</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
       </c>
       <c r="J45" s="1">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K45" s="3">
-        <v>2263</v>
+        <v>6274</v>
       </c>
       <c r="L45" s="2">
-        <v>0.2167</v>
+        <v>0.20849999999999999</v>
       </c>
       <c r="M45" s="11">
         <v>4.949167664058407E-2</v>
@@ -2490,36 +2492,36 @@
         <v>45828</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.1882272416153319</v>
       </c>
       <c r="D46" s="4">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E46" s="9">
-        <v>345.38</v>
+        <v>313.58999999999997</v>
       </c>
       <c r="F46" s="9">
-        <v>347.9</v>
+        <v>295.7</v>
       </c>
       <c r="G46" s="9">
-        <v>350.7</v>
+        <v>298.39999999999998</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="4"/>
-        <v>349.29999999999995</v>
+        <f t="shared" si="2"/>
+        <v>297.04999999999995</v>
       </c>
       <c r="I46" s="1">
         <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="K46" s="3">
-        <v>6274</v>
+        <v>6130</v>
       </c>
       <c r="L46" s="2">
-        <v>0.20849999999999999</v>
+        <v>0.20050000000000001</v>
       </c>
       <c r="M46" s="11">
         <v>4.949167664058407E-2</v>
@@ -2530,42 +2532,42 @@
         <v>45394</v>
       </c>
       <c r="B47" s="7">
-        <v>45828</v>
+        <v>46010</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="5"/>
-        <v>1.1882272416153319</v>
+        <f t="shared" si="0"/>
+        <v>1.6865160848733745</v>
       </c>
       <c r="D47" s="4">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="E47" s="9">
-        <v>313.58999999999997</v>
+        <v>726</v>
       </c>
       <c r="F47" s="9">
-        <v>295.7</v>
+        <v>694.7</v>
       </c>
       <c r="G47" s="9">
-        <v>298.39999999999998</v>
+        <v>749.7</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="4"/>
-        <v>297.04999999999995</v>
+        <f t="shared" si="2"/>
+        <v>722.2</v>
       </c>
       <c r="I47" s="1">
         <v>0</v>
       </c>
       <c r="J47" s="1">
-        <v>6</v>
+        <v>296</v>
       </c>
       <c r="K47" s="3">
-        <v>6130</v>
+        <v>42348</v>
       </c>
       <c r="L47" s="2">
-        <v>0.20050000000000001</v>
+        <v>0.26269999999999999</v>
       </c>
       <c r="M47" s="11">
-        <v>4.949167664058407E-2</v>
+        <v>4.7759847055169842E-2</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="18">
@@ -2576,36 +2578,36 @@
         <v>46010</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.6865160848733745</v>
       </c>
       <c r="D48" s="4">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="E48" s="9">
-        <v>726</v>
+        <v>657.74</v>
       </c>
       <c r="F48" s="9">
-        <v>694.7</v>
+        <v>629.79999999999995</v>
       </c>
       <c r="G48" s="9">
-        <v>749.7</v>
+        <v>684.4</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" ref="H48:H50" si="6">0.5*(F48+G48)</f>
-        <v>722.2</v>
+        <f t="shared" si="2"/>
+        <v>657.09999999999991</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
       </c>
       <c r="J48" s="1">
-        <v>296</v>
+        <v>26</v>
       </c>
       <c r="K48" s="3">
-        <v>42348</v>
+        <v>2289</v>
       </c>
       <c r="L48" s="2">
-        <v>0.26269999999999999</v>
+        <v>0.25490000000000002</v>
       </c>
       <c r="M48" s="11">
         <v>4.7759847055169842E-2</v>
@@ -2619,36 +2621,36 @@
         <v>46010</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1.6865160848733745</v>
       </c>
       <c r="D49" s="4">
-        <v>5100</v>
+        <v>5600</v>
       </c>
       <c r="E49" s="9">
-        <v>657.74</v>
+        <v>369.5</v>
       </c>
       <c r="F49" s="9">
-        <v>629.79999999999995</v>
+        <v>372.2</v>
       </c>
       <c r="G49" s="9">
-        <v>684.4</v>
+        <v>375.3</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="6"/>
-        <v>657.09999999999991</v>
+        <f t="shared" si="2"/>
+        <v>373.75</v>
       </c>
       <c r="I49" s="1">
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K49" s="3">
-        <v>2289</v>
+        <v>4575</v>
       </c>
       <c r="L49" s="2">
-        <v>0.25490000000000002</v>
+        <v>0.2104</v>
       </c>
       <c r="M49" s="11">
         <v>4.7759847055169842E-2</v>
@@ -2659,42 +2661,42 @@
         <v>45394</v>
       </c>
       <c r="B50" s="7">
-        <v>46010</v>
+        <v>45464</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="5"/>
-        <v>1.6865160848733745</v>
+        <f t="shared" si="0"/>
+        <v>0.19164955509924708</v>
       </c>
       <c r="D50" s="4">
-        <v>5600</v>
+        <v>5000</v>
       </c>
       <c r="E50" s="9">
-        <v>369.5</v>
+        <v>74.2</v>
       </c>
       <c r="F50" s="9">
-        <v>372.2</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="G50" s="9">
-        <v>375.3</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="6"/>
-        <v>373.75</v>
+        <f>0.5*(F50+G50)</f>
+        <v>75.75</v>
       </c>
       <c r="I50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="1">
-        <v>47</v>
+        <v>443</v>
       </c>
       <c r="K50" s="3">
-        <v>4575</v>
+        <v>1220</v>
       </c>
       <c r="L50" s="2">
-        <v>0.2104</v>
+        <v>0.1454</v>
       </c>
       <c r="M50" s="11">
-        <v>4.7759847055169842E-2</v>
+        <v>5.2917417003944478E-2</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="18">
@@ -2705,36 +2707,36 @@
         <v>45464</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.19164955509924708</v>
       </c>
       <c r="D51" s="4">
-        <v>5000</v>
+        <v>5050</v>
       </c>
       <c r="E51" s="9">
-        <v>74.2</v>
+        <v>85.86</v>
       </c>
       <c r="F51" s="9">
-        <v>75.400000000000006</v>
+        <v>86.9</v>
       </c>
       <c r="G51" s="9">
-        <v>76.099999999999994</v>
+        <v>88.7</v>
       </c>
       <c r="H51" s="6">
-        <f>0.5*(F51+G51)</f>
-        <v>75.75</v>
+        <f t="shared" ref="H51:H59" si="3">0.5*(F51+G51)</f>
+        <v>87.800000000000011</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
       </c>
-      <c r="J51" s="1">
-        <v>443</v>
+      <c r="J51" s="3">
+        <v>1853</v>
       </c>
       <c r="K51" s="3">
-        <v>1220</v>
+        <v>12455</v>
       </c>
       <c r="L51" s="2">
-        <v>0.1454</v>
+        <v>0.13719999999999999</v>
       </c>
       <c r="M51" s="11">
         <v>5.2917417003944478E-2</v>
@@ -2748,36 +2750,36 @@
         <v>45464</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.19164955509924708</v>
       </c>
       <c r="D52" s="4">
-        <v>5050</v>
+        <v>5150</v>
       </c>
       <c r="E52" s="9">
-        <v>85.86</v>
+        <v>120.1</v>
       </c>
       <c r="F52" s="9">
-        <v>86.9</v>
+        <v>122</v>
       </c>
       <c r="G52" s="9">
-        <v>88.7</v>
+        <v>122.8</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" ref="H52:H60" si="7">0.5*(F52+G52)</f>
-        <v>87.800000000000011</v>
+        <f t="shared" si="3"/>
+        <v>122.4</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
       </c>
-      <c r="J52" s="3">
-        <v>1853</v>
-      </c>
-      <c r="K52" s="3">
-        <v>12455</v>
+      <c r="J52" s="1">
+        <v>207</v>
+      </c>
+      <c r="K52" s="1">
+        <v>750</v>
       </c>
       <c r="L52" s="2">
-        <v>0.13719999999999999</v>
+        <v>0.1215</v>
       </c>
       <c r="M52" s="11">
         <v>5.2917417003944478E-2</v>
@@ -2791,36 +2793,36 @@
         <v>45464</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.19164955509924708</v>
       </c>
       <c r="D53" s="4">
-        <v>5150</v>
+        <v>5160</v>
       </c>
       <c r="E53" s="9">
-        <v>120.1</v>
+        <v>133.30000000000001</v>
       </c>
       <c r="F53" s="9">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G53" s="9">
-        <v>122.8</v>
+        <v>126.9</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="7"/>
-        <v>122.4</v>
+        <f t="shared" si="3"/>
+        <v>126.45</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
       </c>
       <c r="J53" s="1">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="K53" s="1">
-        <v>750</v>
+        <v>326</v>
       </c>
       <c r="L53" s="2">
-        <v>0.1215</v>
+        <v>0.11990000000000001</v>
       </c>
       <c r="M53" s="11">
         <v>5.2917417003944478E-2</v>
@@ -2834,36 +2836,36 @@
         <v>45464</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.19164955509924708</v>
       </c>
       <c r="D54" s="4">
-        <v>5160</v>
+        <v>5170</v>
       </c>
       <c r="E54" s="9">
-        <v>133.30000000000001</v>
+        <v>134.6</v>
       </c>
       <c r="F54" s="9">
-        <v>126</v>
+        <v>130.1</v>
       </c>
       <c r="G54" s="9">
-        <v>126.9</v>
+        <v>131</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" si="7"/>
-        <v>126.45</v>
+        <f t="shared" si="3"/>
+        <v>130.55000000000001</v>
       </c>
       <c r="I54" s="1">
         <v>1</v>
       </c>
       <c r="J54" s="1">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="K54" s="1">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L54" s="2">
-        <v>0.11990000000000001</v>
+        <v>0.1181</v>
       </c>
       <c r="M54" s="11">
         <v>5.2917417003944478E-2</v>
@@ -2877,36 +2879,36 @@
         <v>45464</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.19164955509924708</v>
       </c>
       <c r="D55" s="4">
-        <v>5170</v>
+        <v>5175</v>
       </c>
       <c r="E55" s="9">
-        <v>134.6</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="F55" s="9">
-        <v>130.1</v>
+        <v>130.5</v>
       </c>
       <c r="G55" s="9">
-        <v>131</v>
+        <v>132.80000000000001</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="7"/>
-        <v>130.55000000000001</v>
+        <f t="shared" si="3"/>
+        <v>131.65</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
       </c>
       <c r="J55" s="1">
-        <v>77</v>
-      </c>
-      <c r="K55" s="1">
-        <v>365</v>
+        <v>846</v>
+      </c>
+      <c r="K55" s="3">
+        <v>4668</v>
       </c>
       <c r="L55" s="2">
-        <v>0.1181</v>
+        <v>0.1168</v>
       </c>
       <c r="M55" s="11">
         <v>5.2917417003944478E-2</v>
@@ -2920,36 +2922,36 @@
         <v>45464</v>
       </c>
       <c r="C56" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.19164955509924708</v>
       </c>
       <c r="D56" s="4">
-        <v>5175</v>
+        <v>5185</v>
       </c>
       <c r="E56" s="9">
-        <v>132.69999999999999</v>
+        <v>142.91999999999999</v>
       </c>
       <c r="F56" s="9">
-        <v>130.5</v>
+        <v>134.9</v>
       </c>
       <c r="G56" s="9">
-        <v>132.80000000000001</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="7"/>
-        <v>131.65</v>
+        <f t="shared" si="3"/>
+        <v>136.05000000000001</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
       </c>
-      <c r="J56" s="1">
-        <v>846</v>
+      <c r="J56" s="3">
+        <v>3939</v>
       </c>
       <c r="K56" s="3">
-        <v>4668</v>
+        <v>3622</v>
       </c>
       <c r="L56" s="2">
-        <v>0.1168</v>
+        <v>0.115</v>
       </c>
       <c r="M56" s="11">
         <v>5.2917417003944478E-2</v>
@@ -2963,36 +2965,36 @@
         <v>45464</v>
       </c>
       <c r="C57" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.19164955509924708</v>
       </c>
       <c r="D57" s="4">
-        <v>5185</v>
+        <v>5205</v>
       </c>
       <c r="E57" s="9">
-        <v>142.91999999999999</v>
+        <v>149.05000000000001</v>
       </c>
       <c r="F57" s="9">
-        <v>134.9</v>
+        <v>145.1</v>
       </c>
       <c r="G57" s="9">
-        <v>137.19999999999999</v>
+        <v>147</v>
       </c>
       <c r="H57" s="6">
-        <f t="shared" si="7"/>
-        <v>136.05000000000001</v>
+        <f t="shared" si="3"/>
+        <v>146.05000000000001</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
       </c>
-      <c r="J57" s="3">
-        <v>3939</v>
-      </c>
-      <c r="K57" s="3">
-        <v>3622</v>
+      <c r="J57" s="1">
+        <v>246</v>
+      </c>
+      <c r="K57" s="1">
+        <v>468</v>
       </c>
       <c r="L57" s="2">
-        <v>0.115</v>
+        <v>0.112</v>
       </c>
       <c r="M57" s="11">
         <v>5.2917417003944478E-2</v>
@@ -3006,36 +3008,36 @@
         <v>45464</v>
       </c>
       <c r="C58" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.19164955509924708</v>
       </c>
       <c r="D58" s="4">
-        <v>5205</v>
+        <v>5210</v>
       </c>
       <c r="E58" s="9">
-        <v>149.05000000000001</v>
+        <v>155.31</v>
       </c>
       <c r="F58" s="9">
-        <v>145.1</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="G58" s="9">
-        <v>147</v>
+        <v>150.5</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" si="7"/>
-        <v>146.05000000000001</v>
+        <f t="shared" si="3"/>
+        <v>147.65</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
       </c>
-      <c r="J58" s="1">
-        <v>246</v>
-      </c>
-      <c r="K58" s="1">
-        <v>468</v>
+      <c r="J58" s="3">
+        <v>2829</v>
+      </c>
+      <c r="K58" s="3">
+        <v>6527</v>
       </c>
       <c r="L58" s="2">
-        <v>0.112</v>
+        <v>0.1124</v>
       </c>
       <c r="M58" s="11">
         <v>5.2917417003944478E-2</v>
@@ -3049,36 +3051,36 @@
         <v>45464</v>
       </c>
       <c r="C59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.19164955509924708</v>
       </c>
       <c r="D59" s="4">
-        <v>5210</v>
+        <v>5300</v>
       </c>
       <c r="E59" s="9">
-        <v>155.31</v>
+        <v>204</v>
       </c>
       <c r="F59" s="9">
-        <v>144.80000000000001</v>
+        <v>193.6</v>
       </c>
       <c r="G59" s="9">
-        <v>150.5</v>
+        <v>199.3</v>
       </c>
       <c r="H59" s="6">
-        <f t="shared" si="7"/>
-        <v>147.65</v>
+        <f t="shared" si="3"/>
+        <v>196.45</v>
       </c>
       <c r="I59" s="1">
         <v>1</v>
       </c>
       <c r="J59" s="3">
-        <v>2829</v>
+        <v>1144</v>
       </c>
       <c r="K59" s="3">
-        <v>6527</v>
+        <v>62272</v>
       </c>
       <c r="L59" s="2">
-        <v>0.1124</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="M59" s="11">
         <v>5.2917417003944478E-2</v>
@@ -3089,42 +3091,42 @@
         <v>45394</v>
       </c>
       <c r="B60" s="7">
-        <v>45464</v>
+        <v>45555</v>
       </c>
       <c r="C60" s="8">
-        <f t="shared" si="5"/>
-        <v>0.19164955509924708</v>
+        <f t="shared" si="0"/>
+        <v>0.44079397672826831</v>
       </c>
       <c r="D60" s="4">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="E60" s="9">
-        <v>204</v>
+        <v>102.4</v>
       </c>
       <c r="F60" s="9">
-        <v>193.6</v>
+        <v>101.4</v>
       </c>
       <c r="G60" s="9">
-        <v>199.3</v>
+        <v>102.6</v>
       </c>
       <c r="H60" s="6">
-        <f t="shared" si="7"/>
-        <v>196.45</v>
+        <f>0.5*(F60+G60)</f>
+        <v>102</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
       </c>
-      <c r="J60" s="3">
-        <v>1144</v>
+      <c r="J60" s="1">
+        <v>890</v>
       </c>
       <c r="K60" s="3">
-        <v>62272</v>
+        <v>21389</v>
       </c>
       <c r="L60" s="2">
-        <v>9.0999999999999998E-2</v>
+        <v>0.1464</v>
       </c>
       <c r="M60" s="11">
-        <v>5.2917417003944478E-2</v>
+        <v>5.2310132277010979E-2</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="18">
@@ -3135,36 +3137,36 @@
         <v>45555</v>
       </c>
       <c r="C61" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D61" s="4">
-        <v>4900</v>
+        <v>4950</v>
       </c>
       <c r="E61" s="9">
-        <v>102.4</v>
+        <v>112.67</v>
       </c>
       <c r="F61" s="9">
-        <v>101.4</v>
+        <v>112</v>
       </c>
       <c r="G61" s="9">
-        <v>102.6</v>
+        <v>113.2</v>
       </c>
       <c r="H61" s="6">
-        <f>0.5*(F61+G61)</f>
-        <v>102</v>
+        <f t="shared" ref="H61:H97" si="4">0.5*(F61+G61)</f>
+        <v>112.6</v>
       </c>
       <c r="I61" s="1">
         <v>1</v>
       </c>
       <c r="J61" s="1">
-        <v>890</v>
+        <v>367</v>
       </c>
       <c r="K61" s="3">
-        <v>21389</v>
+        <v>2706</v>
       </c>
       <c r="L61" s="2">
-        <v>0.1464</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="M61" s="11">
         <v>5.2310132277010979E-2</v>
@@ -3178,36 +3180,36 @@
         <v>45555</v>
       </c>
       <c r="C62" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D62" s="4">
-        <v>4950</v>
+        <v>5000</v>
       </c>
       <c r="E62" s="9">
-        <v>112.67</v>
+        <v>129.68</v>
       </c>
       <c r="F62" s="9">
-        <v>112</v>
+        <v>123.9</v>
       </c>
       <c r="G62" s="9">
-        <v>113.2</v>
+        <v>125.2</v>
       </c>
       <c r="H62" s="6">
-        <f t="shared" ref="H62:H70" si="8">0.5*(F62+G62)</f>
-        <v>112.6</v>
+        <f t="shared" si="4"/>
+        <v>124.55000000000001</v>
       </c>
       <c r="I62" s="1">
         <v>1</v>
       </c>
-      <c r="J62" s="1">
-        <v>367</v>
+      <c r="J62" s="3">
+        <v>4084</v>
       </c>
       <c r="K62" s="3">
-        <v>2706</v>
+        <v>62136</v>
       </c>
       <c r="L62" s="2">
-        <v>0.14050000000000001</v>
+        <v>0.13450000000000001</v>
       </c>
       <c r="M62" s="11">
         <v>5.2310132277010979E-2</v>
@@ -3221,36 +3223,36 @@
         <v>45555</v>
       </c>
       <c r="C63" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D63" s="4">
-        <v>5000</v>
+        <v>5075</v>
       </c>
       <c r="E63" s="9">
-        <v>129.68</v>
+        <v>145.52000000000001</v>
       </c>
       <c r="F63" s="9">
-        <v>123.9</v>
+        <v>144.5</v>
       </c>
       <c r="G63" s="9">
-        <v>125.2</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="H63" s="6">
-        <f t="shared" si="8"/>
-        <v>124.55000000000001</v>
+        <f t="shared" si="4"/>
+        <v>145.15</v>
       </c>
       <c r="I63" s="1">
         <v>1</v>
       </c>
-      <c r="J63" s="3">
-        <v>4084</v>
+      <c r="J63" s="1">
+        <v>66</v>
       </c>
       <c r="K63" s="3">
-        <v>62136</v>
+        <v>1987</v>
       </c>
       <c r="L63" s="2">
-        <v>0.13450000000000001</v>
+        <v>0.12509999999999999</v>
       </c>
       <c r="M63" s="11">
         <v>5.2310132277010979E-2</v>
@@ -3264,36 +3266,36 @@
         <v>45555</v>
       </c>
       <c r="C64" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D64" s="4">
-        <v>5075</v>
+        <v>5100</v>
       </c>
       <c r="E64" s="9">
-        <v>145.52000000000001</v>
+        <v>159.09</v>
       </c>
       <c r="F64" s="9">
-        <v>144.5</v>
+        <v>152.1</v>
       </c>
       <c r="G64" s="9">
-        <v>145.80000000000001</v>
+        <v>153.5</v>
       </c>
       <c r="H64" s="6">
-        <f t="shared" si="8"/>
-        <v>145.15</v>
+        <f t="shared" si="4"/>
+        <v>152.80000000000001</v>
       </c>
       <c r="I64" s="1">
         <v>1</v>
       </c>
-      <c r="J64" s="1">
-        <v>66</v>
+      <c r="J64" s="3">
+        <v>2010</v>
       </c>
       <c r="K64" s="3">
-        <v>1987</v>
+        <v>11046</v>
       </c>
       <c r="L64" s="2">
-        <v>0.12509999999999999</v>
+        <v>0.12189999999999999</v>
       </c>
       <c r="M64" s="11">
         <v>5.2310132277010979E-2</v>
@@ -3307,36 +3309,36 @@
         <v>45555</v>
       </c>
       <c r="C65" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D65" s="4">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E65" s="9">
-        <v>159.09</v>
+        <v>193.14</v>
       </c>
       <c r="F65" s="9">
-        <v>152.1</v>
+        <v>187.2</v>
       </c>
       <c r="G65" s="9">
-        <v>153.5</v>
+        <v>188.6</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" si="8"/>
-        <v>152.80000000000001</v>
+        <f t="shared" si="4"/>
+        <v>187.89999999999998</v>
       </c>
       <c r="I65" s="1">
         <v>1</v>
       </c>
-      <c r="J65" s="3">
-        <v>2010</v>
+      <c r="J65" s="1">
+        <v>451</v>
       </c>
       <c r="K65" s="3">
-        <v>11046</v>
+        <v>10040</v>
       </c>
       <c r="L65" s="2">
-        <v>0.12189999999999999</v>
+        <v>0.1077</v>
       </c>
       <c r="M65" s="11">
         <v>5.2310132277010979E-2</v>
@@ -3350,36 +3352,36 @@
         <v>45555</v>
       </c>
       <c r="C66" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
       <c r="D66" s="4">
-        <v>5200</v>
+        <v>5225</v>
       </c>
       <c r="E66" s="9">
-        <v>193.14</v>
+        <v>198.51</v>
       </c>
       <c r="F66" s="9">
-        <v>187.2</v>
+        <v>197.2</v>
       </c>
       <c r="G66" s="9">
-        <v>188.6</v>
+        <v>198.7</v>
       </c>
       <c r="H66" s="6">
-        <f t="shared" si="8"/>
-        <v>187.89999999999998</v>
+        <f t="shared" si="4"/>
+        <v>197.95</v>
       </c>
       <c r="I66" s="1">
         <v>1</v>
       </c>
       <c r="J66" s="1">
-        <v>451</v>
-      </c>
-      <c r="K66" s="3">
-        <v>10040</v>
+        <v>53</v>
+      </c>
+      <c r="K66" s="1">
+        <v>941</v>
       </c>
       <c r="L66" s="2">
-        <v>0.1077</v>
+        <v>0.1038</v>
       </c>
       <c r="M66" s="11">
         <v>5.2310132277010979E-2</v>
@@ -3393,36 +3395,36 @@
         <v>45555</v>
       </c>
       <c r="C67" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C67:C97" si="5">(B67-A67)/365.25</f>
         <v>0.44079397672826831</v>
       </c>
       <c r="D67" s="4">
-        <v>5225</v>
+        <v>5250</v>
       </c>
       <c r="E67" s="9">
-        <v>198.51</v>
+        <v>207.24</v>
       </c>
       <c r="F67" s="9">
-        <v>197.2</v>
+        <v>207.8</v>
       </c>
       <c r="G67" s="9">
-        <v>198.7</v>
+        <v>209.2</v>
       </c>
       <c r="H67" s="6">
-        <f t="shared" si="8"/>
-        <v>197.95</v>
+        <f t="shared" si="4"/>
+        <v>208.5</v>
       </c>
       <c r="I67" s="1">
         <v>1</v>
       </c>
-      <c r="J67" s="1">
-        <v>53</v>
-      </c>
-      <c r="K67" s="1">
-        <v>941</v>
+      <c r="J67" s="3">
+        <v>1850</v>
+      </c>
+      <c r="K67" s="3">
+        <v>9001</v>
       </c>
       <c r="L67" s="2">
-        <v>0.1038</v>
+        <v>9.9599999999999994E-2</v>
       </c>
       <c r="M67" s="11">
         <v>5.2310132277010979E-2</v>
@@ -3440,32 +3442,32 @@
         <v>0.44079397672826831</v>
       </c>
       <c r="D68" s="4">
-        <v>5250</v>
+        <v>5300</v>
       </c>
       <c r="E68" s="9">
-        <v>207.24</v>
+        <v>239.3</v>
       </c>
       <c r="F68" s="9">
-        <v>207.8</v>
+        <v>230.1</v>
       </c>
       <c r="G68" s="9">
-        <v>209.2</v>
+        <v>232.2</v>
       </c>
       <c r="H68" s="6">
-        <f t="shared" si="8"/>
-        <v>208.5</v>
+        <f t="shared" si="4"/>
+        <v>231.14999999999998</v>
       </c>
       <c r="I68" s="1">
         <v>1</v>
       </c>
-      <c r="J68" s="3">
-        <v>1850</v>
+      <c r="J68" s="1">
+        <v>115</v>
       </c>
       <c r="K68" s="3">
-        <v>9001</v>
+        <v>6754</v>
       </c>
       <c r="L68" s="2">
-        <v>9.9599999999999994E-2</v>
+        <v>9.0300000000000005E-2</v>
       </c>
       <c r="M68" s="11">
         <v>5.2310132277010979E-2</v>
@@ -3483,32 +3485,32 @@
         <v>0.44079397672826831</v>
       </c>
       <c r="D69" s="4">
-        <v>5300</v>
+        <v>5350</v>
       </c>
       <c r="E69" s="9">
-        <v>239.3</v>
+        <v>265.38</v>
       </c>
       <c r="F69" s="9">
-        <v>230.1</v>
+        <v>251.7</v>
       </c>
       <c r="G69" s="9">
-        <v>232.2</v>
+        <v>261.3</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" si="8"/>
-        <v>231.14999999999998</v>
+        <f t="shared" si="4"/>
+        <v>256.5</v>
       </c>
       <c r="I69" s="1">
         <v>1</v>
       </c>
       <c r="J69" s="1">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K69" s="3">
-        <v>6754</v>
+        <v>1863</v>
       </c>
       <c r="L69" s="2">
-        <v>9.0300000000000005E-2</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="M69" s="11">
         <v>5.2310132277010979E-2</v>
@@ -3519,42 +3521,42 @@
         <v>45394</v>
       </c>
       <c r="B70" s="7">
-        <v>45555</v>
+        <v>45646</v>
       </c>
       <c r="C70" s="8">
         <f t="shared" si="5"/>
-        <v>0.44079397672826831</v>
+        <v>0.68993839835728954</v>
       </c>
       <c r="D70" s="4">
-        <v>5350</v>
+        <v>4875</v>
       </c>
       <c r="E70" s="9">
-        <v>265.38</v>
+        <v>142.94999999999999</v>
       </c>
       <c r="F70" s="9">
-        <v>251.7</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="G70" s="9">
-        <v>261.3</v>
+        <v>142.5</v>
       </c>
       <c r="H70" s="6">
-        <f t="shared" si="8"/>
-        <v>256.5</v>
+        <f t="shared" si="4"/>
+        <v>141.85</v>
       </c>
       <c r="I70" s="1">
         <v>1</v>
       </c>
       <c r="J70" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K70" s="3">
-        <v>1863</v>
+        <v>8888</v>
       </c>
       <c r="L70" s="2">
-        <v>8.2299999999999998E-2</v>
+        <v>0.14929999999999999</v>
       </c>
       <c r="M70" s="11">
-        <v>5.2310132277010979E-2</v>
+        <v>5.1525748731924705E-2</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="18">
@@ -3569,32 +3571,32 @@
         <v>0.68993839835728954</v>
       </c>
       <c r="D71" s="4">
-        <v>4875</v>
+        <v>4900</v>
       </c>
       <c r="E71" s="9">
-        <v>142.94999999999999</v>
+        <v>145.9</v>
       </c>
       <c r="F71" s="9">
-        <v>141.19999999999999</v>
+        <v>146.6</v>
       </c>
       <c r="G71" s="9">
-        <v>142.5</v>
+        <v>147.9</v>
       </c>
       <c r="H71" s="6">
-        <f t="shared" ref="H71:H80" si="9">0.5*(F71+G71)</f>
-        <v>141.85</v>
+        <f t="shared" si="4"/>
+        <v>147.25</v>
       </c>
       <c r="I71" s="1">
         <v>1</v>
       </c>
-      <c r="J71" s="1">
-        <v>120</v>
+      <c r="J71" s="3">
+        <v>2058</v>
       </c>
       <c r="K71" s="3">
-        <v>8888</v>
+        <v>20577</v>
       </c>
       <c r="L71" s="2">
-        <v>0.14929999999999999</v>
+        <v>0.14680000000000001</v>
       </c>
       <c r="M71" s="11">
         <v>5.1525748731924705E-2</v>
@@ -3612,32 +3614,32 @@
         <v>0.68993839835728954</v>
       </c>
       <c r="D72" s="4">
-        <v>4900</v>
+        <v>4950</v>
       </c>
       <c r="E72" s="9">
-        <v>145.9</v>
+        <v>159.97</v>
       </c>
       <c r="F72" s="9">
-        <v>146.6</v>
+        <v>158.19999999999999</v>
       </c>
       <c r="G72" s="9">
-        <v>147.9</v>
+        <v>159.6</v>
       </c>
       <c r="H72" s="6">
-        <f t="shared" si="9"/>
-        <v>147.25</v>
+        <f t="shared" si="4"/>
+        <v>158.89999999999998</v>
       </c>
       <c r="I72" s="1">
         <v>1</v>
       </c>
-      <c r="J72" s="3">
-        <v>2058</v>
+      <c r="J72" s="1">
+        <v>227</v>
       </c>
       <c r="K72" s="3">
-        <v>20577</v>
+        <v>6672</v>
       </c>
       <c r="L72" s="2">
-        <v>0.14680000000000001</v>
+        <v>0.14169999999999999</v>
       </c>
       <c r="M72" s="11">
         <v>5.1525748731924705E-2</v>
@@ -3655,32 +3657,32 @@
         <v>0.68993839835728954</v>
       </c>
       <c r="D73" s="4">
-        <v>4950</v>
+        <v>5000</v>
       </c>
       <c r="E73" s="9">
-        <v>159.97</v>
+        <v>176.03</v>
       </c>
       <c r="F73" s="9">
-        <v>158.19999999999999</v>
+        <v>170.8</v>
       </c>
       <c r="G73" s="9">
-        <v>159.6</v>
+        <v>172.2</v>
       </c>
       <c r="H73" s="6">
-        <f t="shared" si="9"/>
-        <v>158.89999999999998</v>
+        <f t="shared" si="4"/>
+        <v>171.5</v>
       </c>
       <c r="I73" s="1">
         <v>1</v>
       </c>
       <c r="J73" s="1">
-        <v>227</v>
+        <v>541</v>
       </c>
       <c r="K73" s="3">
-        <v>6672</v>
+        <v>122935</v>
       </c>
       <c r="L73" s="2">
-        <v>0.14169999999999999</v>
+        <v>0.13639999999999999</v>
       </c>
       <c r="M73" s="11">
         <v>5.1525748731924705E-2</v>
@@ -3698,32 +3700,32 @@
         <v>0.68993839835728954</v>
       </c>
       <c r="D74" s="4">
-        <v>5000</v>
+        <v>5150</v>
       </c>
       <c r="E74" s="9">
-        <v>176.03</v>
+        <v>220.44</v>
       </c>
       <c r="F74" s="9">
-        <v>170.8</v>
+        <v>215.2</v>
       </c>
       <c r="G74" s="9">
-        <v>172.2</v>
+        <v>216.7</v>
       </c>
       <c r="H74" s="6">
-        <f t="shared" si="9"/>
-        <v>171.5</v>
+        <f t="shared" si="4"/>
+        <v>215.95</v>
       </c>
       <c r="I74" s="1">
         <v>1</v>
       </c>
       <c r="J74" s="1">
-        <v>541</v>
+        <v>221</v>
       </c>
       <c r="K74" s="3">
-        <v>122935</v>
+        <v>5743</v>
       </c>
       <c r="L74" s="2">
-        <v>0.13639999999999999</v>
+        <v>0.1195</v>
       </c>
       <c r="M74" s="11">
         <v>5.1525748731924705E-2</v>
@@ -3741,32 +3743,32 @@
         <v>0.68993839835728954</v>
       </c>
       <c r="D75" s="4">
-        <v>5150</v>
+        <v>5200</v>
       </c>
       <c r="E75" s="9">
-        <v>220.44</v>
+        <v>235.63</v>
       </c>
       <c r="F75" s="9">
-        <v>215.2</v>
+        <v>232.5</v>
       </c>
       <c r="G75" s="9">
-        <v>216.7</v>
+        <v>234.1</v>
       </c>
       <c r="H75" s="6">
-        <f t="shared" si="9"/>
-        <v>215.95</v>
+        <f t="shared" si="4"/>
+        <v>233.3</v>
       </c>
       <c r="I75" s="1">
         <v>1</v>
       </c>
-      <c r="J75" s="1">
-        <v>221</v>
+      <c r="J75" s="3">
+        <v>1784</v>
       </c>
       <c r="K75" s="3">
-        <v>5743</v>
+        <v>17467</v>
       </c>
       <c r="L75" s="2">
-        <v>0.1195</v>
+        <v>0.1132</v>
       </c>
       <c r="M75" s="11">
         <v>5.1525748731924705E-2</v>
@@ -3780,36 +3782,36 @@
         <v>45646</v>
       </c>
       <c r="C76" s="8">
-        <f t="shared" ref="C76:C80" si="10">(B76-A76)/365.25</f>
+        <f t="shared" si="5"/>
         <v>0.68993839835728954</v>
       </c>
       <c r="D76" s="4">
-        <v>5200</v>
+        <v>5250</v>
       </c>
       <c r="E76" s="9">
-        <v>235.63</v>
+        <v>256.62</v>
       </c>
       <c r="F76" s="9">
-        <v>232.5</v>
+        <v>251.1</v>
       </c>
       <c r="G76" s="9">
-        <v>234.1</v>
+        <v>252.7</v>
       </c>
       <c r="H76" s="6">
-        <f t="shared" si="9"/>
-        <v>233.3</v>
+        <f t="shared" si="4"/>
+        <v>251.89999999999998</v>
       </c>
       <c r="I76" s="1">
         <v>1</v>
       </c>
-      <c r="J76" s="3">
-        <v>1784</v>
+      <c r="J76" s="1">
+        <v>316</v>
       </c>
       <c r="K76" s="3">
-        <v>17467</v>
+        <v>4732</v>
       </c>
       <c r="L76" s="2">
-        <v>0.1132</v>
+        <v>0.10630000000000001</v>
       </c>
       <c r="M76" s="11">
         <v>5.1525748731924705E-2</v>
@@ -3823,36 +3825,36 @@
         <v>45646</v>
       </c>
       <c r="C77" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.68993839835728954</v>
       </c>
       <c r="D77" s="4">
-        <v>5250</v>
+        <v>5275</v>
       </c>
       <c r="E77" s="9">
-        <v>256.62</v>
+        <v>262.64999999999998</v>
       </c>
       <c r="F77" s="9">
-        <v>251.1</v>
+        <v>261</v>
       </c>
       <c r="G77" s="9">
-        <v>252.7</v>
+        <v>262.5</v>
       </c>
       <c r="H77" s="6">
-        <f t="shared" si="9"/>
-        <v>251.89999999999998</v>
+        <f t="shared" si="4"/>
+        <v>261.75</v>
       </c>
       <c r="I77" s="1">
         <v>1</v>
       </c>
       <c r="J77" s="1">
-        <v>316</v>
+        <v>200</v>
       </c>
       <c r="K77" s="3">
-        <v>4732</v>
+        <v>2966</v>
       </c>
       <c r="L77" s="2">
-        <v>0.10630000000000001</v>
+        <v>0.1026</v>
       </c>
       <c r="M77" s="11">
         <v>5.1525748731924705E-2</v>
@@ -3866,36 +3868,36 @@
         <v>45646</v>
       </c>
       <c r="C78" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.68993839835728954</v>
       </c>
       <c r="D78" s="4">
-        <v>5275</v>
+        <v>5325</v>
       </c>
       <c r="E78" s="9">
-        <v>262.64999999999998</v>
+        <v>293.13</v>
       </c>
       <c r="F78" s="9">
-        <v>261</v>
+        <v>281.8</v>
       </c>
       <c r="G78" s="9">
-        <v>262.5</v>
+        <v>283.39999999999998</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" si="9"/>
-        <v>261.75</v>
+        <f t="shared" si="4"/>
+        <v>282.60000000000002</v>
       </c>
       <c r="I78" s="1">
         <v>1</v>
       </c>
       <c r="J78" s="1">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="K78" s="3">
-        <v>2966</v>
+        <v>1713</v>
       </c>
       <c r="L78" s="2">
-        <v>0.1026</v>
+        <v>9.4399999999999998E-2</v>
       </c>
       <c r="M78" s="11">
         <v>5.1525748731924705E-2</v>
@@ -3909,36 +3911,36 @@
         <v>45646</v>
       </c>
       <c r="C79" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0.68993839835728954</v>
       </c>
       <c r="D79" s="4">
-        <v>5325</v>
+        <v>5400</v>
       </c>
       <c r="E79" s="9">
-        <v>293.13</v>
+        <v>322.56</v>
       </c>
       <c r="F79" s="9">
-        <v>281.8</v>
+        <v>315.39999999999998</v>
       </c>
       <c r="G79" s="9">
-        <v>283.39999999999998</v>
+        <v>317.89999999999998</v>
       </c>
       <c r="H79" s="6">
-        <f t="shared" si="9"/>
-        <v>282.60000000000002</v>
+        <f t="shared" si="4"/>
+        <v>316.64999999999998</v>
       </c>
       <c r="I79" s="1">
         <v>1</v>
       </c>
       <c r="J79" s="1">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="K79" s="3">
-        <v>1713</v>
+        <v>5470</v>
       </c>
       <c r="L79" s="2">
-        <v>9.4399999999999998E-2</v>
+        <v>7.9100000000000004E-2</v>
       </c>
       <c r="M79" s="11">
         <v>5.1525748731924705E-2</v>
@@ -3949,42 +3951,42 @@
         <v>45394</v>
       </c>
       <c r="B80" s="7">
-        <v>45646</v>
+        <v>45737</v>
       </c>
       <c r="C80" s="8">
-        <f t="shared" si="10"/>
-        <v>0.68993839835728954</v>
+        <f t="shared" si="5"/>
+        <v>0.93908281998631071</v>
       </c>
       <c r="D80" s="4">
-        <v>5400</v>
+        <v>4900</v>
       </c>
       <c r="E80" s="9">
-        <v>322.56</v>
+        <v>184.04</v>
       </c>
       <c r="F80" s="9">
-        <v>315.39999999999998</v>
+        <v>178.4</v>
       </c>
       <c r="G80" s="9">
-        <v>317.89999999999998</v>
+        <v>180.5</v>
       </c>
       <c r="H80" s="6">
-        <f t="shared" si="9"/>
-        <v>316.64999999999998</v>
+        <f t="shared" si="4"/>
+        <v>179.45</v>
       </c>
       <c r="I80" s="1">
         <v>1</v>
       </c>
-      <c r="J80" s="1">
-        <v>252</v>
+      <c r="J80" s="3">
+        <v>1271</v>
       </c>
       <c r="K80" s="3">
-        <v>5470</v>
+        <v>4061</v>
       </c>
       <c r="L80" s="2">
-        <v>7.9100000000000004E-2</v>
+        <v>0.14369999999999999</v>
       </c>
       <c r="M80" s="11">
-        <v>5.1525748731924705E-2</v>
+        <v>5.0618083580326718E-2</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="18">
@@ -3995,36 +3997,36 @@
         <v>45737</v>
       </c>
       <c r="C81" s="8">
-        <f t="shared" ref="C81:C99" si="11">(B81-A81)/365.25</f>
+        <f t="shared" si="5"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D81" s="4">
-        <v>4900</v>
+        <v>4950</v>
       </c>
       <c r="E81" s="9">
-        <v>184.04</v>
+        <v>196</v>
       </c>
       <c r="F81" s="9">
-        <v>178.4</v>
+        <v>190.2</v>
       </c>
       <c r="G81" s="9">
-        <v>180.5</v>
+        <v>192.3</v>
       </c>
       <c r="H81" s="6">
-        <f t="shared" ref="H81:H90" si="12">0.5*(F81+G81)</f>
-        <v>179.45</v>
+        <f t="shared" si="4"/>
+        <v>191.25</v>
       </c>
       <c r="I81" s="1">
         <v>1</v>
       </c>
-      <c r="J81" s="3">
-        <v>1271</v>
-      </c>
-      <c r="K81" s="3">
-        <v>4061</v>
+      <c r="J81" s="1">
+        <v>10</v>
+      </c>
+      <c r="K81" s="1">
+        <v>815</v>
       </c>
       <c r="L81" s="2">
-        <v>0.14369999999999999</v>
+        <v>0.1389</v>
       </c>
       <c r="M81" s="11">
         <v>5.0618083580326718E-2</v>
@@ -4038,36 +4040,36 @@
         <v>45737</v>
       </c>
       <c r="C82" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D82" s="4">
-        <v>4950</v>
+        <v>5000</v>
       </c>
       <c r="E82" s="9">
-        <v>196</v>
+        <v>208.2</v>
       </c>
       <c r="F82" s="9">
-        <v>190.2</v>
+        <v>202.7</v>
       </c>
       <c r="G82" s="9">
-        <v>192.3</v>
+        <v>204.9</v>
       </c>
       <c r="H82" s="6">
-        <f t="shared" si="12"/>
-        <v>191.25</v>
+        <f t="shared" si="4"/>
+        <v>203.8</v>
       </c>
       <c r="I82" s="1">
         <v>1</v>
       </c>
       <c r="J82" s="1">
-        <v>10</v>
-      </c>
-      <c r="K82" s="1">
-        <v>815</v>
+        <v>513</v>
+      </c>
+      <c r="K82" s="3">
+        <v>6679</v>
       </c>
       <c r="L82" s="2">
-        <v>0.1389</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="M82" s="11">
         <v>5.0618083580326718E-2</v>
@@ -4081,36 +4083,36 @@
         <v>45737</v>
       </c>
       <c r="C83" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D83" s="4">
-        <v>5000</v>
+        <v>5050</v>
       </c>
       <c r="E83" s="9">
-        <v>208.2</v>
+        <v>222.3</v>
       </c>
       <c r="F83" s="9">
-        <v>202.7</v>
+        <v>216.1</v>
       </c>
       <c r="G83" s="9">
-        <v>204.9</v>
+        <v>218.4</v>
       </c>
       <c r="H83" s="6">
-        <f t="shared" si="12"/>
-        <v>203.8</v>
+        <f t="shared" si="4"/>
+        <v>217.25</v>
       </c>
       <c r="I83" s="1">
         <v>1</v>
       </c>
       <c r="J83" s="1">
-        <v>513</v>
+        <v>19</v>
       </c>
       <c r="K83" s="3">
-        <v>6679</v>
+        <v>5366</v>
       </c>
       <c r="L83" s="2">
-        <v>0.13400000000000001</v>
+        <v>0.129</v>
       </c>
       <c r="M83" s="11">
         <v>5.0618083580326718E-2</v>
@@ -4124,36 +4126,36 @@
         <v>45737</v>
       </c>
       <c r="C84" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D84" s="4">
-        <v>5050</v>
+        <v>5200</v>
       </c>
       <c r="E84" s="9">
-        <v>222.3</v>
+        <v>270.8</v>
       </c>
       <c r="F84" s="9">
-        <v>216.1</v>
+        <v>261.8</v>
       </c>
       <c r="G84" s="9">
-        <v>218.4</v>
+        <v>264.2</v>
       </c>
       <c r="H84" s="6">
-        <f t="shared" si="12"/>
-        <v>217.25</v>
+        <f t="shared" si="4"/>
+        <v>263</v>
       </c>
       <c r="I84" s="1">
         <v>1</v>
       </c>
       <c r="J84" s="1">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="K84" s="3">
-        <v>5366</v>
+        <v>4150</v>
       </c>
       <c r="L84" s="2">
-        <v>0.129</v>
+        <v>0.1123</v>
       </c>
       <c r="M84" s="11">
         <v>5.0618083580326718E-2</v>
@@ -4167,36 +4169,36 @@
         <v>45737</v>
       </c>
       <c r="C85" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D85" s="4">
-        <v>5075</v>
+        <v>5350</v>
       </c>
       <c r="E85" s="9">
-        <v>229.1</v>
+        <v>323.01</v>
       </c>
       <c r="F85" s="9">
-        <v>221.7</v>
+        <v>316.89999999999998</v>
       </c>
       <c r="G85" s="9">
-        <v>227.3</v>
+        <v>319.5</v>
       </c>
       <c r="H85" s="6">
-        <f t="shared" si="12"/>
-        <v>224.5</v>
+        <f t="shared" si="4"/>
+        <v>318.2</v>
       </c>
       <c r="I85" s="1">
         <v>1</v>
       </c>
-      <c r="J85" s="1">
-        <v>14</v>
-      </c>
-      <c r="K85" s="3">
-        <v>1139</v>
+      <c r="J85" s="3">
+        <v>1062</v>
+      </c>
+      <c r="K85" s="1">
+        <v>466</v>
       </c>
       <c r="L85" s="2">
-        <v>0.12740000000000001</v>
+        <v>9.1300000000000006E-2</v>
       </c>
       <c r="M85" s="11">
         <v>5.0618083580326718E-2</v>
@@ -4210,36 +4212,36 @@
         <v>45737</v>
       </c>
       <c r="C86" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D86" s="4">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="E86" s="9">
-        <v>270.8</v>
+        <v>341.11</v>
       </c>
       <c r="F86" s="9">
-        <v>261.8</v>
+        <v>337.8</v>
       </c>
       <c r="G86" s="9">
-        <v>264.2</v>
+        <v>340.4</v>
       </c>
       <c r="H86" s="6">
-        <f t="shared" si="12"/>
-        <v>263</v>
+        <f t="shared" si="4"/>
+        <v>339.1</v>
       </c>
       <c r="I86" s="1">
         <v>1</v>
       </c>
       <c r="J86" s="1">
-        <v>306</v>
+        <v>57</v>
       </c>
       <c r="K86" s="3">
-        <v>4150</v>
+        <v>2496</v>
       </c>
       <c r="L86" s="2">
-        <v>0.1123</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="M86" s="11">
         <v>5.0618083580326718E-2</v>
@@ -4253,36 +4255,36 @@
         <v>45737</v>
       </c>
       <c r="C87" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D87" s="4">
-        <v>5350</v>
+        <v>5450</v>
       </c>
       <c r="E87" s="9">
-        <v>323.01</v>
+        <v>367.35</v>
       </c>
       <c r="F87" s="9">
-        <v>316.89999999999998</v>
+        <v>359.9</v>
       </c>
       <c r="G87" s="9">
-        <v>319.5</v>
+        <v>362.5</v>
       </c>
       <c r="H87" s="6">
-        <f t="shared" si="12"/>
-        <v>318.2</v>
+        <f t="shared" si="4"/>
+        <v>361.2</v>
       </c>
       <c r="I87" s="1">
         <v>1</v>
       </c>
-      <c r="J87" s="3">
-        <v>1062</v>
+      <c r="J87" s="1">
+        <v>22</v>
       </c>
       <c r="K87" s="1">
-        <v>466</v>
+        <v>866</v>
       </c>
       <c r="L87" s="2">
-        <v>9.1300000000000006E-2</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="M87" s="11">
         <v>5.0618083580326718E-2</v>
@@ -4296,36 +4298,36 @@
         <v>45737</v>
       </c>
       <c r="C88" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>0.93908281998631071</v>
       </c>
       <c r="D88" s="4">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="E88" s="9">
-        <v>341.11</v>
+        <v>385.22</v>
       </c>
       <c r="F88" s="9">
-        <v>337.8</v>
+        <v>381.7</v>
       </c>
       <c r="G88" s="9">
-        <v>340.4</v>
+        <v>387.8</v>
       </c>
       <c r="H88" s="6">
-        <f t="shared" si="12"/>
-        <v>339.1</v>
+        <f t="shared" si="4"/>
+        <v>384.75</v>
       </c>
       <c r="I88" s="1">
         <v>1</v>
       </c>
       <c r="J88" s="1">
-        <v>57</v>
+        <v>271</v>
       </c>
       <c r="K88" s="3">
-        <v>2496</v>
+        <v>4279</v>
       </c>
       <c r="L88" s="2">
-        <v>8.2299999999999998E-2</v>
+        <v>5.45E-2</v>
       </c>
       <c r="M88" s="11">
         <v>5.0618083580326718E-2</v>
@@ -4336,42 +4338,42 @@
         <v>45394</v>
       </c>
       <c r="B89" s="7">
-        <v>45737</v>
+        <v>45828</v>
       </c>
       <c r="C89" s="8">
-        <f t="shared" si="11"/>
-        <v>0.93908281998631071</v>
+        <f t="shared" si="5"/>
+        <v>1.1882272416153319</v>
       </c>
       <c r="D89" s="4">
-        <v>5450</v>
-      </c>
-      <c r="E89" s="9">
-        <v>367.35</v>
-      </c>
-      <c r="F89" s="9">
-        <v>359.9</v>
-      </c>
-      <c r="G89" s="9">
-        <v>362.5</v>
+        <v>5000</v>
+      </c>
+      <c r="E89" s="1">
+        <v>234.61</v>
+      </c>
+      <c r="F89" s="1">
+        <v>230.6</v>
+      </c>
+      <c r="G89" s="1">
+        <v>233.1</v>
       </c>
       <c r="H89" s="6">
-        <f t="shared" si="12"/>
-        <v>361.2</v>
+        <f t="shared" si="4"/>
+        <v>231.85</v>
       </c>
       <c r="I89" s="1">
         <v>1</v>
       </c>
       <c r="J89" s="1">
-        <v>22</v>
-      </c>
-      <c r="K89" s="1">
-        <v>866</v>
+        <v>14</v>
+      </c>
+      <c r="K89" s="3">
+        <v>9536</v>
       </c>
       <c r="L89" s="2">
-        <v>7.0800000000000002E-2</v>
+        <v>0.13220000000000001</v>
       </c>
       <c r="M89" s="11">
-        <v>5.0618083580326718E-2</v>
+        <v>4.949167664058407E-2</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="18">
@@ -4379,42 +4381,42 @@
         <v>45394</v>
       </c>
       <c r="B90" s="7">
-        <v>45737</v>
+        <v>45828</v>
       </c>
       <c r="C90" s="8">
-        <f t="shared" si="11"/>
-        <v>0.93908281998631071</v>
+        <f t="shared" si="5"/>
+        <v>1.1882272416153319</v>
       </c>
       <c r="D90" s="4">
-        <v>5500</v>
-      </c>
-      <c r="E90" s="9">
-        <v>385.22</v>
-      </c>
-      <c r="F90" s="9">
-        <v>381.7</v>
-      </c>
-      <c r="G90" s="9">
-        <v>387.8</v>
+        <v>5150</v>
+      </c>
+      <c r="E90" s="1">
+        <v>277.60000000000002</v>
+      </c>
+      <c r="F90" s="1">
+        <v>272.60000000000002</v>
+      </c>
+      <c r="G90" s="1">
+        <v>275.2</v>
       </c>
       <c r="H90" s="6">
-        <f t="shared" si="12"/>
-        <v>384.75</v>
+        <f t="shared" si="4"/>
+        <v>273.89999999999998</v>
       </c>
       <c r="I90" s="1">
         <v>1</v>
       </c>
       <c r="J90" s="1">
-        <v>271</v>
+        <v>10</v>
       </c>
       <c r="K90" s="3">
-        <v>4279</v>
+        <v>2495</v>
       </c>
       <c r="L90" s="2">
-        <v>5.45E-2</v>
+        <v>0.1173</v>
       </c>
       <c r="M90" s="11">
-        <v>5.0618083580326718E-2</v>
+        <v>4.949167664058407E-2</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="18">
@@ -4425,36 +4427,36 @@
         <v>45828</v>
       </c>
       <c r="C91" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1.1882272416153319</v>
       </c>
       <c r="D91" s="4">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="E91" s="1">
-        <v>234.61</v>
+        <v>289.82</v>
       </c>
       <c r="F91" s="1">
-        <v>230.6</v>
+        <v>288.2</v>
       </c>
       <c r="G91" s="1">
-        <v>233.1</v>
+        <v>290.8</v>
       </c>
       <c r="H91" s="6">
-        <f t="shared" ref="H91:H96" si="13">0.5*(F91+G91)</f>
-        <v>231.85</v>
+        <f t="shared" si="4"/>
+        <v>289.5</v>
       </c>
       <c r="I91" s="1">
         <v>1</v>
       </c>
       <c r="J91" s="1">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="K91" s="3">
-        <v>9536</v>
+        <v>2482</v>
       </c>
       <c r="L91" s="2">
-        <v>0.13220000000000001</v>
+        <v>0.1119</v>
       </c>
       <c r="M91" s="11">
         <v>4.949167664058407E-2</v>
@@ -4468,36 +4470,36 @@
         <v>45828</v>
       </c>
       <c r="C92" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1.1882272416153319</v>
       </c>
       <c r="D92" s="4">
-        <v>5150</v>
+        <v>5300</v>
       </c>
       <c r="E92" s="1">
-        <v>277.60000000000002</v>
+        <v>327.08999999999997</v>
       </c>
       <c r="F92" s="1">
-        <v>272.60000000000002</v>
+        <v>321.89999999999998</v>
       </c>
       <c r="G92" s="1">
-        <v>275.2</v>
+        <v>324.7</v>
       </c>
       <c r="H92" s="6">
-        <f t="shared" si="13"/>
-        <v>273.89999999999998</v>
+        <f t="shared" si="4"/>
+        <v>323.29999999999995</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
       </c>
       <c r="J92" s="1">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="K92" s="3">
-        <v>2495</v>
+        <v>2086</v>
       </c>
       <c r="L92" s="2">
-        <v>0.1173</v>
+        <v>9.9699999999999997E-2</v>
       </c>
       <c r="M92" s="11">
         <v>4.949167664058407E-2</v>
@@ -4511,36 +4513,36 @@
         <v>45828</v>
       </c>
       <c r="C93" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1.1882272416153319</v>
       </c>
       <c r="D93" s="4">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="E93" s="1">
-        <v>289.82</v>
+        <v>350.3</v>
       </c>
       <c r="F93" s="1">
-        <v>288.2</v>
+        <v>359.4</v>
       </c>
       <c r="G93" s="1">
-        <v>290.8</v>
+        <v>362.3</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" si="13"/>
-        <v>289.5</v>
+        <f t="shared" si="4"/>
+        <v>360.85</v>
       </c>
       <c r="I93" s="1">
         <v>1</v>
       </c>
       <c r="J93" s="1">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="K93" s="3">
-        <v>2482</v>
+        <v>1788</v>
       </c>
       <c r="L93" s="2">
-        <v>0.1119</v>
+        <v>8.48E-2</v>
       </c>
       <c r="M93" s="11">
         <v>4.949167664058407E-2</v>
@@ -4554,36 +4556,36 @@
         <v>45828</v>
       </c>
       <c r="C94" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1.1882272416153319</v>
       </c>
       <c r="D94" s="4">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E94" s="1">
-        <v>327.08999999999997</v>
+        <v>390.11</v>
       </c>
       <c r="F94" s="1">
-        <v>321.89999999999998</v>
+        <v>401.1</v>
       </c>
       <c r="G94" s="1">
-        <v>324.7</v>
+        <v>404.1</v>
       </c>
       <c r="H94" s="6">
-        <f t="shared" si="13"/>
-        <v>323.29999999999995</v>
+        <f t="shared" si="4"/>
+        <v>402.6</v>
       </c>
       <c r="I94" s="1">
         <v>1</v>
       </c>
       <c r="J94" s="1">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="K94" s="3">
-        <v>2086</v>
+        <v>1700</v>
       </c>
       <c r="L94" s="2">
-        <v>9.9699999999999997E-2</v>
+        <v>6.2700000000000006E-2</v>
       </c>
       <c r="M94" s="11">
         <v>4.949167664058407E-2</v>
@@ -4594,42 +4596,42 @@
         <v>45394</v>
       </c>
       <c r="B95" s="7">
-        <v>45828</v>
+        <v>46010</v>
       </c>
       <c r="C95" s="8">
-        <f t="shared" si="11"/>
-        <v>1.1882272416153319</v>
+        <f t="shared" si="5"/>
+        <v>1.6865160848733745</v>
       </c>
       <c r="D95" s="4">
-        <v>5400</v>
-      </c>
-      <c r="E95" s="1">
-        <v>350.3</v>
-      </c>
-      <c r="F95" s="1">
-        <v>359.4</v>
-      </c>
-      <c r="G95" s="1">
-        <v>362.3</v>
+        <v>5000</v>
+      </c>
+      <c r="E95" s="9">
+        <v>278.13</v>
+      </c>
+      <c r="F95" s="9">
+        <v>275.89999999999998</v>
+      </c>
+      <c r="G95" s="9">
+        <v>278.5</v>
       </c>
       <c r="H95" s="6">
-        <f t="shared" si="13"/>
-        <v>360.85</v>
+        <f t="shared" si="4"/>
+        <v>277.2</v>
       </c>
       <c r="I95" s="1">
         <v>1</v>
       </c>
       <c r="J95" s="1">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="K95" s="3">
-        <v>1788</v>
+        <v>45062</v>
       </c>
       <c r="L95" s="2">
-        <v>8.48E-2</v>
+        <v>0.12859999999999999</v>
       </c>
       <c r="M95" s="11">
-        <v>4.949167664058407E-2</v>
+        <v>4.7759847055169842E-2</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="18">
@@ -4637,42 +4639,42 @@
         <v>45394</v>
       </c>
       <c r="B96" s="7">
-        <v>45828</v>
+        <v>46010</v>
       </c>
       <c r="C96" s="8">
-        <f t="shared" si="11"/>
-        <v>1.1882272416153319</v>
+        <f t="shared" si="5"/>
+        <v>1.6865160848733745</v>
       </c>
       <c r="D96" s="4">
-        <v>5500</v>
-      </c>
-      <c r="E96" s="1">
-        <v>390.11</v>
-      </c>
-      <c r="F96" s="1">
-        <v>401.1</v>
-      </c>
-      <c r="G96" s="1">
-        <v>404.1</v>
+        <v>5100</v>
+      </c>
+      <c r="E96" s="9">
+        <v>309</v>
+      </c>
+      <c r="F96" s="9">
+        <v>302.8</v>
+      </c>
+      <c r="G96" s="9">
+        <v>305.5</v>
       </c>
       <c r="H96" s="6">
-        <f t="shared" si="13"/>
-        <v>402.6</v>
+        <f t="shared" si="4"/>
+        <v>304.14999999999998</v>
       </c>
       <c r="I96" s="1">
         <v>1</v>
       </c>
       <c r="J96" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K96" s="3">
-        <v>1700</v>
+        <v>1843</v>
       </c>
       <c r="L96" s="2">
-        <v>6.2700000000000006E-2</v>
+        <v>0.12</v>
       </c>
       <c r="M96" s="11">
-        <v>4.949167664058407E-2</v>
+        <v>4.7759847055169842E-2</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="18">
@@ -4683,260 +4685,202 @@
         <v>46010</v>
       </c>
       <c r="C97" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>1.6865160848733745</v>
       </c>
       <c r="D97" s="4">
-        <v>5000</v>
+        <v>5600</v>
       </c>
       <c r="E97" s="9">
-        <v>278.13</v>
+        <v>482.78</v>
       </c>
       <c r="F97" s="9">
-        <v>275.89999999999998</v>
+        <v>476.8</v>
       </c>
       <c r="G97" s="9">
-        <v>278.5</v>
+        <v>480</v>
       </c>
       <c r="H97" s="6">
-        <f t="shared" ref="H97:H99" si="14">0.5*(F97+G97)</f>
-        <v>277.2</v>
+        <f t="shared" si="4"/>
+        <v>478.4</v>
       </c>
       <c r="I97" s="1">
         <v>1</v>
       </c>
       <c r="J97" s="1">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="K97" s="3">
-        <v>45062</v>
+        <v>1381</v>
       </c>
       <c r="L97" s="2">
-        <v>0.12859999999999999</v>
+        <v>3.9E-2</v>
       </c>
       <c r="M97" s="11">
         <v>4.7759847055169842E-2</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="18">
-      <c r="A98" s="10">
-        <v>45394</v>
-      </c>
-      <c r="B98" s="7">
-        <v>46010</v>
-      </c>
-      <c r="C98" s="8">
-        <f t="shared" si="11"/>
-        <v>1.6865160848733745</v>
-      </c>
-      <c r="D98" s="4">
-        <v>5100</v>
-      </c>
-      <c r="E98" s="9">
-        <v>309</v>
-      </c>
-      <c r="F98" s="9">
-        <v>302.8</v>
-      </c>
-      <c r="G98" s="9">
-        <v>305.5</v>
-      </c>
-      <c r="H98" s="6">
-        <f t="shared" si="14"/>
-        <v>304.14999999999998</v>
-      </c>
-      <c r="I98" s="1">
-        <v>1</v>
-      </c>
-      <c r="J98" s="1">
-        <v>16</v>
-      </c>
-      <c r="K98" s="3">
-        <v>1843</v>
-      </c>
-      <c r="L98" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="M98" s="11">
-        <v>4.7759847055169842E-2</v>
-      </c>
+      <c r="A98" s="10"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="11"/>
     </row>
     <row r="99" spans="1:13" ht="18">
-      <c r="A99" s="10">
-        <v>45394</v>
-      </c>
-      <c r="B99" s="7">
-        <v>46010</v>
-      </c>
-      <c r="C99" s="8">
-        <f t="shared" si="11"/>
-        <v>1.6865160848733745</v>
-      </c>
-      <c r="D99" s="4">
-        <v>5600</v>
-      </c>
-      <c r="E99" s="9">
-        <v>482.78</v>
-      </c>
-      <c r="F99" s="9">
-        <v>476.8</v>
-      </c>
-      <c r="G99" s="9">
-        <v>480</v>
-      </c>
-      <c r="H99" s="6">
-        <f t="shared" si="14"/>
-        <v>478.4</v>
-      </c>
-      <c r="I99" s="1">
-        <v>1</v>
-      </c>
-      <c r="J99" s="1">
-        <v>3</v>
-      </c>
-      <c r="K99" s="3">
-        <v>1381</v>
-      </c>
-      <c r="L99" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="M99" s="11">
-        <v>4.7759847055169842E-2</v>
-      </c>
+      <c r="A99" s="10"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B61:L70">
     <sortCondition ref="D61:D70"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" display="https://finance.yahoo.com/quote/SPX241220C04875000" xr:uid="{ECDDA5DF-607B-4049-9606-08731FAAE909}"/>
-    <hyperlink ref="D22" r:id="rId2" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4875&amp;type=calls" xr:uid="{FF78A99A-7E4E-984B-BADC-BB0559133421}"/>
-    <hyperlink ref="D23" r:id="rId3" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4900&amp;type=calls" xr:uid="{A76F7495-2945-194B-9FDB-0AE2253DD8F7}"/>
-    <hyperlink ref="D24" r:id="rId4" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4950&amp;type=calls" xr:uid="{FD02C3BD-33C1-EE4C-AE77-D018F6165489}"/>
-    <hyperlink ref="D25" r:id="rId5" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=calls" xr:uid="{BE6960D2-D998-CE4F-8254-67C31C0090AA}"/>
-    <hyperlink ref="D26" r:id="rId6" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5150&amp;type=calls" xr:uid="{FB9B6CFA-B439-F141-9732-BB514A9AC73C}"/>
-    <hyperlink ref="D27" r:id="rId7" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=calls" xr:uid="{AD54B2C5-3F8D-4E47-917C-1A6B1B94F3A6}"/>
-    <hyperlink ref="D28" r:id="rId8" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5250&amp;type=calls" xr:uid="{2BCA2588-61BD-3D46-9546-BCF64616CE39}"/>
-    <hyperlink ref="D29" r:id="rId9" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5275&amp;type=calls" xr:uid="{B8E0CE51-838B-064D-933B-599FB2EFBD15}"/>
-    <hyperlink ref="D30" r:id="rId10" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5325&amp;type=calls" xr:uid="{81F16502-BEBE-E744-B7B8-EB879C392CCE}"/>
-    <hyperlink ref="D31" r:id="rId11" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5400&amp;type=calls" xr:uid="{2A09D936-0C71-B245-8C4F-F8C9A476B9E7}"/>
-    <hyperlink ref="D71" r:id="rId12" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4875&amp;type=puts" xr:uid="{F54B3E48-343B-2B4D-8755-A35D707BC0EA}"/>
-    <hyperlink ref="D72" r:id="rId13" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4900&amp;type=puts" xr:uid="{66ADE1A3-D857-0A48-8CBB-7AF368F194B4}"/>
-    <hyperlink ref="D73" r:id="rId14" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4950&amp;type=puts" xr:uid="{1E34BB81-84D8-0442-8447-8F8FB300239F}"/>
-    <hyperlink ref="D74" r:id="rId15" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=puts" xr:uid="{718D2D81-A0FB-D44E-986F-4DEECFCEBA32}"/>
-    <hyperlink ref="D75" r:id="rId16" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5150&amp;type=puts" xr:uid="{F2ED84C0-9D4A-8148-A171-1ADEC969058A}"/>
-    <hyperlink ref="D76" r:id="rId17" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=puts" xr:uid="{F23232BE-A6EA-CD4A-B003-704AE46E5614}"/>
-    <hyperlink ref="D77" r:id="rId18" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5250&amp;type=puts" xr:uid="{6A2414AA-9139-F249-A3A1-9613CDE3009B}"/>
-    <hyperlink ref="D78" r:id="rId19" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5275&amp;type=puts" xr:uid="{93B6895C-5C7A-EC4C-AD03-7E29336C2FA8}"/>
-    <hyperlink ref="D79" r:id="rId20" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5325&amp;type=puts" xr:uid="{1BA98E52-7930-6B4D-BE01-17AED29F0BED}"/>
-    <hyperlink ref="D80" r:id="rId21" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5400&amp;type=puts" xr:uid="{0421970B-865B-C649-A76A-0D1965F7C315}"/>
-    <hyperlink ref="D81" r:id="rId22" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4900&amp;type=puts" xr:uid="{938E620A-06F2-0F42-ADB4-F4337BB84CB7}"/>
-    <hyperlink ref="D82" r:id="rId23" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4950&amp;type=puts" xr:uid="{C2F8A691-181C-5249-85CD-F05500A54545}"/>
-    <hyperlink ref="D83" r:id="rId24" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=puts" xr:uid="{E1656A23-176D-364F-9EB6-7934C059B146}"/>
-    <hyperlink ref="D84" r:id="rId25" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5050&amp;type=puts" xr:uid="{B37CE169-E21F-CE43-9F93-064AEEA4E789}"/>
-    <hyperlink ref="D85" r:id="rId26" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5075&amp;type=puts" xr:uid="{DDF7C088-6DFB-6F47-B7BB-744C400531CF}"/>
-    <hyperlink ref="D86" r:id="rId27" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=puts" xr:uid="{A70817D3-F9FC-684C-80C5-82F20B1417C5}"/>
-    <hyperlink ref="D87" r:id="rId28" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5350&amp;type=puts" xr:uid="{8BF5E413-CF5A-9143-87F4-8EBE1AFA94E5}"/>
-    <hyperlink ref="D88" r:id="rId29" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5400&amp;type=puts" xr:uid="{11A3AFB2-7EE9-1348-BCCD-A149CC918407}"/>
-    <hyperlink ref="D89" r:id="rId30" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5450&amp;type=puts" xr:uid="{F09CDAE9-FA3E-D140-B498-E13636E83923}"/>
-    <hyperlink ref="D90" r:id="rId31" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5500&amp;type=puts" xr:uid="{4F04C303-1BF4-B44D-9301-0E1131A938CE}"/>
-    <hyperlink ref="B32" r:id="rId32" display="https://finance.yahoo.com/quote/SPX250321C04900000" xr:uid="{6031DD38-F4F0-634F-AB7D-93B913FEE5B7}"/>
-    <hyperlink ref="D32" r:id="rId33" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4900&amp;type=calls" xr:uid="{BF7E2B9B-1299-1A4A-8C4C-59EE49113975}"/>
-    <hyperlink ref="D33" r:id="rId34" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4950&amp;type=calls" xr:uid="{C062264D-2A9E-E340-9683-AF906D3D535F}"/>
-    <hyperlink ref="D34" r:id="rId35" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=calls" xr:uid="{02521F5D-7437-C64E-9596-34E574A5333B}"/>
-    <hyperlink ref="D35" r:id="rId36" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5050&amp;type=calls" xr:uid="{F01826D6-DA73-BD42-9C72-3E6343EF8F11}"/>
-    <hyperlink ref="D36" r:id="rId37" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=calls" xr:uid="{54390629-9A96-7C46-A176-1F115E78A96A}"/>
-    <hyperlink ref="D37" r:id="rId38" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5350&amp;type=calls" xr:uid="{40693E34-96F9-FB4A-978D-21840FF9F2F6}"/>
-    <hyperlink ref="D38" r:id="rId39" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5400&amp;type=calls" xr:uid="{E95575BF-1C57-024D-A384-40A8FB7C097C}"/>
-    <hyperlink ref="D39" r:id="rId40" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5425&amp;type=calls" xr:uid="{15EACF2E-A0CE-DD4F-8DEA-519D09A3DCFF}"/>
-    <hyperlink ref="D40" r:id="rId41" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5450&amp;type=calls" xr:uid="{2E34DA63-2444-8640-9366-0C22E55FBED1}"/>
-    <hyperlink ref="D41" r:id="rId42" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5500&amp;type=calls" xr:uid="{55049036-64F9-5F45-87CF-CF5418C5AE27}"/>
-    <hyperlink ref="B42" r:id="rId43" display="https://finance.yahoo.com/quote/SPX250620C05000000" xr:uid="{9CB71AE5-C7E1-6D4E-8293-AAA679FD0B79}"/>
-    <hyperlink ref="D42" r:id="rId44" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=calls" xr:uid="{9E4A3B95-DDDE-4646-8BA4-4302FED5BCD7}"/>
-    <hyperlink ref="D43" r:id="rId45" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5150&amp;type=calls" xr:uid="{457ABAE0-7941-044D-9DCB-ABAFFED4AA07}"/>
-    <hyperlink ref="D44" r:id="rId46" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=calls" xr:uid="{1D6EDF44-124A-A541-9B55-4E03B20473BB}"/>
-    <hyperlink ref="D45" r:id="rId47" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5300&amp;type=calls" xr:uid="{C686044E-1A25-1C40-9662-CA3A71C0260F}"/>
-    <hyperlink ref="D46" r:id="rId48" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5400&amp;type=calls" xr:uid="{B4C50205-A1AF-1447-A5EF-C4AAEC4153C8}"/>
-    <hyperlink ref="D47" r:id="rId49" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5500&amp;type=calls" xr:uid="{171E5983-FAC5-8A41-BF1E-A6A9C582CF6C}"/>
-    <hyperlink ref="D91" r:id="rId50" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=puts" xr:uid="{13D4378D-88BD-B444-9CAB-B0F62D24B528}"/>
-    <hyperlink ref="D92" r:id="rId51" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5150&amp;type=puts" xr:uid="{0D80FF15-2757-E940-9E4A-4BF76E085979}"/>
-    <hyperlink ref="D93" r:id="rId52" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=puts" xr:uid="{7DD1F471-AA06-154C-A231-2A3B34DD9194}"/>
-    <hyperlink ref="D94" r:id="rId53" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5300&amp;type=puts" xr:uid="{E0339B43-A0D2-BF44-9B36-3B82B8030C4A}"/>
-    <hyperlink ref="D95" r:id="rId54" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5400&amp;type=puts" xr:uid="{47A59579-B313-2349-97B1-65141A5B820F}"/>
-    <hyperlink ref="D96" r:id="rId55" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5500&amp;type=puts" xr:uid="{1EAA749A-7804-4345-9F7E-2672C417990C}"/>
-    <hyperlink ref="B48" r:id="rId56" display="https://finance.yahoo.com/quote/SPX251219C05000000" xr:uid="{3142FA65-AA5C-4E4C-A57A-18CC96A8A928}"/>
-    <hyperlink ref="D48" r:id="rId57" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=calls" xr:uid="{4E2942A6-5FDB-AA43-AD93-4E27F6FAFE5C}"/>
-    <hyperlink ref="D49" r:id="rId58" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5100&amp;type=calls" xr:uid="{D4F44441-7ABC-1440-A970-8BA7B4443C7F}"/>
-    <hyperlink ref="D50" r:id="rId59" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5600&amp;type=calls" xr:uid="{5B28EE8F-4354-6442-BC2A-621D2426ABA8}"/>
-    <hyperlink ref="D97" r:id="rId60" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=puts" xr:uid="{4F116B69-4737-494A-AEFC-6556DBC2CB81}"/>
-    <hyperlink ref="D98" r:id="rId61" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5100&amp;type=puts" xr:uid="{11B77C6C-009F-1D4A-8FB2-47FA60D44B1A}"/>
-    <hyperlink ref="D99" r:id="rId62" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5600&amp;type=puts" xr:uid="{A9D63C08-E240-6543-A734-BE6DE9F10D7C}"/>
-    <hyperlink ref="D2" r:id="rId63" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=calls" xr:uid="{7D9583C5-9B00-294D-B2DB-6A92F43ABED7}"/>
-    <hyperlink ref="D3" r:id="rId64" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5050&amp;type=calls" xr:uid="{14861550-6BAF-C849-9F02-ADD296E91BE0}"/>
-    <hyperlink ref="D4" r:id="rId65" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5150&amp;type=calls" xr:uid="{715C1E27-DBFE-CA4F-BC5E-698DF4728D74}"/>
-    <hyperlink ref="D5" r:id="rId66" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5160&amp;type=calls" xr:uid="{5043C592-FA58-FC4C-A1AD-222E38DF6CCF}"/>
-    <hyperlink ref="D6" r:id="rId67" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5170&amp;type=calls" xr:uid="{B7C65EBD-4907-D741-8CE3-9A619DA0C276}"/>
-    <hyperlink ref="D7" r:id="rId68" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5175&amp;type=calls" xr:uid="{799DB0D3-B9D0-0347-90DE-D30F90E81A66}"/>
-    <hyperlink ref="D8" r:id="rId69" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5185&amp;type=calls" xr:uid="{29D13260-C667-E041-A0B0-895EAE1E97F7}"/>
-    <hyperlink ref="D9" r:id="rId70" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5205&amp;type=calls" xr:uid="{C3D026E6-E251-F443-9BD8-8A546777CD30}"/>
-    <hyperlink ref="D10" r:id="rId71" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5210&amp;type=calls" xr:uid="{AF0EB52C-0EFD-0049-92D7-5704E6F12207}"/>
-    <hyperlink ref="D11" r:id="rId72" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5300&amp;type=calls" xr:uid="{0D44EC14-59C5-3B44-B4CD-BE3C83540CDA}"/>
-    <hyperlink ref="B51" r:id="rId73" display="https://finance.yahoo.com/quote/SPXW240621P05000000" xr:uid="{2CDD8127-B573-FC48-B912-08E31BFD57F6}"/>
-    <hyperlink ref="D51" r:id="rId74" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=puts" xr:uid="{4BBF2F19-5E71-864A-9CCB-879D568A0DDF}"/>
-    <hyperlink ref="D52" r:id="rId75" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5050&amp;type=puts" xr:uid="{81457057-00E1-1F45-9658-8120B0EFA418}"/>
-    <hyperlink ref="D53" r:id="rId76" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5150&amp;type=puts" xr:uid="{11936B40-D163-0E4F-8333-D4D0B4ABCEBC}"/>
-    <hyperlink ref="D54" r:id="rId77" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5160&amp;type=puts" xr:uid="{73A2D46B-D7A5-4041-AA9E-F4A5754F56F4}"/>
-    <hyperlink ref="D55" r:id="rId78" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5170&amp;type=puts" xr:uid="{C73EEC9D-6EDF-D742-96A8-71961A6696FE}"/>
-    <hyperlink ref="D56" r:id="rId79" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5175&amp;type=puts" xr:uid="{C518A4C9-1CC6-C246-9B15-4C7A98E20D5E}"/>
-    <hyperlink ref="D57" r:id="rId80" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5185&amp;type=puts" xr:uid="{C5C49073-3B10-C94A-9603-8484014B8663}"/>
-    <hyperlink ref="D58" r:id="rId81" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5205&amp;type=puts" xr:uid="{8698406A-ACF3-2C4D-B8CD-D6C73A22D2F5}"/>
-    <hyperlink ref="D59" r:id="rId82" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5210&amp;type=puts" xr:uid="{4C33238B-E726-524B-B069-6A1C9AE3A294}"/>
-    <hyperlink ref="D60" r:id="rId83" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5300&amp;type=puts" xr:uid="{4337DA6D-3AA4-4846-BF03-930B5CF52CA3}"/>
-    <hyperlink ref="D12" r:id="rId84" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4900&amp;type=calls" xr:uid="{3B5EDA18-C4B1-2847-9257-5364C4BC6D61}"/>
-    <hyperlink ref="D13" r:id="rId85" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4950&amp;type=calls" xr:uid="{16EC274A-4CE3-5A46-BC3E-6DE547033EDA}"/>
-    <hyperlink ref="D14" r:id="rId86" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=calls" xr:uid="{97487F87-62F0-8046-B279-397B7BC8713E}"/>
-    <hyperlink ref="D15" r:id="rId87" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5075&amp;type=calls" xr:uid="{5C5995B4-F245-F743-B42A-22883BA63412}"/>
-    <hyperlink ref="D16" r:id="rId88" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5100&amp;type=calls" xr:uid="{DFFE0EFD-ACC5-FE4E-A28A-588336B33F6A}"/>
-    <hyperlink ref="D17" r:id="rId89" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=calls" xr:uid="{F5FA02D7-C243-0348-97C6-06F399CCA37F}"/>
-    <hyperlink ref="D18" r:id="rId90" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5225&amp;type=calls" xr:uid="{929EE87B-B489-6D44-9FB3-534C446B96DC}"/>
-    <hyperlink ref="D19" r:id="rId91" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5250&amp;type=calls" xr:uid="{CA8F10E8-1BC6-1647-B474-D1F4CC725C4D}"/>
-    <hyperlink ref="D20" r:id="rId92" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5300&amp;type=calls" xr:uid="{2B7AC3E4-E8D6-874B-9722-30C461E2D8D6}"/>
-    <hyperlink ref="D21" r:id="rId93" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5350&amp;type=calls" xr:uid="{3CA88A4C-8601-6E4A-93DF-6A248AF276BD}"/>
-    <hyperlink ref="B61" r:id="rId94" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{F2BC126B-125D-B940-BEF8-8E08EDEE49EC}"/>
-    <hyperlink ref="D61" r:id="rId95" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4900&amp;type=puts" xr:uid="{F6AA15EE-ABC1-A94F-90AD-39D9A0EBF191}"/>
-    <hyperlink ref="D62" r:id="rId96" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4950&amp;type=puts" xr:uid="{BC099BBF-7FD9-D84C-9427-3D66BE5D98FF}"/>
-    <hyperlink ref="D63" r:id="rId97" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=puts" xr:uid="{C744AFCA-1551-C143-A53E-DA6051C498A0}"/>
-    <hyperlink ref="D64" r:id="rId98" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5075&amp;type=puts" xr:uid="{3C3A929A-67FF-144E-BB7F-F68FC3B609FC}"/>
-    <hyperlink ref="D65" r:id="rId99" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5100&amp;type=puts" xr:uid="{8E5D3D2E-C3B5-6044-B3DC-70E5530C7FEC}"/>
-    <hyperlink ref="D66" r:id="rId100" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=puts" xr:uid="{337B0B35-CDC2-9C47-86E3-C49F0228DEE4}"/>
-    <hyperlink ref="D67" r:id="rId101" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5225&amp;type=puts" xr:uid="{EF37044F-151D-994E-ADD9-C21BF14F3C4D}"/>
-    <hyperlink ref="D68" r:id="rId102" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5250&amp;type=puts" xr:uid="{1CD440A8-0E9A-3A40-ADAC-13422F1291E0}"/>
-    <hyperlink ref="D69" r:id="rId103" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5300&amp;type=puts" xr:uid="{628EF691-2B2D-4A44-8602-E36AC1A59551}"/>
-    <hyperlink ref="D70" r:id="rId104" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5350&amp;type=puts" xr:uid="{2092601D-BCD3-D548-94C1-5F5E2CCE40F2}"/>
-    <hyperlink ref="B23:B80" r:id="rId105" display="https://finance.yahoo.com/quote/SPX241220C04875000" xr:uid="{FCCACC82-779D-154E-A217-03D081693008}"/>
-    <hyperlink ref="B62" r:id="rId106" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{FBAA5BBB-5688-1A48-AE8C-F0E8716864A2}"/>
-    <hyperlink ref="B63" r:id="rId107" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{7CE0E209-197A-9C4A-A02C-D3569814E427}"/>
-    <hyperlink ref="B64" r:id="rId108" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{86B41451-9B7C-CB4B-9E5E-CF7E64328993}"/>
-    <hyperlink ref="B65" r:id="rId109" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{EE0914F6-65F2-294E-BF51-4BA270745EF9}"/>
-    <hyperlink ref="B66" r:id="rId110" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{696ADEF6-07FA-1F4A-A1E0-200A309407E6}"/>
-    <hyperlink ref="B67" r:id="rId111" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{DD5887C2-4AB5-4045-BEB0-6582B136F4EB}"/>
-    <hyperlink ref="B68" r:id="rId112" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{5F119B39-E9D2-6B4D-A509-E99B3BDB7374}"/>
-    <hyperlink ref="B69" r:id="rId113" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{B1CA88E0-C867-624A-B9BF-4AE54A551A84}"/>
-    <hyperlink ref="B70" r:id="rId114" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{DE5E2398-3F49-2B40-BF49-5F6931F6960A}"/>
-    <hyperlink ref="B12" r:id="rId115" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{9A6A277F-2165-8C4C-9BBD-0A9A65CCD7C3}"/>
-    <hyperlink ref="B13:B21" r:id="rId116" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{77E53D74-04E2-F044-AB1A-97290B3C6297}"/>
-    <hyperlink ref="B52:B60" r:id="rId117" display="https://finance.yahoo.com/quote/SPXW240621P05000000" xr:uid="{689FA9E0-3151-3E4E-BC16-A974A3CD24B8}"/>
-    <hyperlink ref="B2" r:id="rId118" display="https://finance.yahoo.com/quote/SPXW240621P05000000" xr:uid="{CB949EEE-0A4B-8340-9895-51B1BD31667E}"/>
-    <hyperlink ref="B3:B11" r:id="rId119" display="https://finance.yahoo.com/quote/SPXW240621P05000000" xr:uid="{FA81B405-C8AF-F64B-8B58-FA6DDA593E9C}"/>
-    <hyperlink ref="B33:B41" r:id="rId120" display="https://finance.yahoo.com/quote/SPX250321C04900000" xr:uid="{8ED07748-830B-0949-915D-CBF73AB86B18}"/>
-    <hyperlink ref="B81" r:id="rId121" display="https://finance.yahoo.com/quote/SPX250321C04900000" xr:uid="{2668E9D6-F636-8A45-9A3F-C7E5346EEEFE}"/>
-    <hyperlink ref="B82:B90" r:id="rId122" display="https://finance.yahoo.com/quote/SPX250321C04900000" xr:uid="{D3723F08-59C4-6A45-9EBF-538F67793246}"/>
-    <hyperlink ref="B43:B47" r:id="rId123" display="https://finance.yahoo.com/quote/SPX250620C05000000" xr:uid="{570CCBE3-3B72-8D4B-BDEE-DA0200E4BEB7}"/>
-    <hyperlink ref="B91" r:id="rId124" display="https://finance.yahoo.com/quote/SPX250620C05000000" xr:uid="{67802D7F-BDA3-0D42-8856-601D9DADD198}"/>
-    <hyperlink ref="B92:B96" r:id="rId125" display="https://finance.yahoo.com/quote/SPX250620C05000000" xr:uid="{6916B121-5F65-D248-9CEE-E4254CAE6A86}"/>
-    <hyperlink ref="B49:B50" r:id="rId126" display="https://finance.yahoo.com/quote/SPX251219C05000000" xr:uid="{58EE80DB-FFB4-6B47-9795-B1974527AD3F}"/>
-    <hyperlink ref="B97" r:id="rId127" display="https://finance.yahoo.com/quote/SPX251219C05000000" xr:uid="{4DEA1331-50D5-5248-BD72-AB106396E4EF}"/>
-    <hyperlink ref="B98:B99" r:id="rId128" display="https://finance.yahoo.com/quote/SPX251219C05000000" xr:uid="{76306708-C1CC-EE42-8337-CDF6DD8E7B57}"/>
+    <hyperlink ref="B22" r:id="rId1" display="https://finance.yahoo.com/quote/SPX241220C04875000" xr:uid="{6211E95B-0BD6-47CB-8414-BCEE6658BF13}"/>
+    <hyperlink ref="D22" r:id="rId2" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4875&amp;type=calls" xr:uid="{E05ADC8B-EFCA-4DDB-B729-CED51555A145}"/>
+    <hyperlink ref="D23" r:id="rId3" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4900&amp;type=calls" xr:uid="{BD506277-11A9-4395-A033-773E50DE243B}"/>
+    <hyperlink ref="D24" r:id="rId4" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4950&amp;type=calls" xr:uid="{D340B39D-A327-4124-BE83-9CEBB7C950DF}"/>
+    <hyperlink ref="D25" r:id="rId5" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=calls" xr:uid="{D5A0D1DD-7730-48EE-8C09-678CA592B531}"/>
+    <hyperlink ref="D26" r:id="rId6" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5150&amp;type=calls" xr:uid="{BDA88FC2-8D00-4D6D-9C31-8013908E9C8C}"/>
+    <hyperlink ref="D27" r:id="rId7" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=calls" xr:uid="{55286502-F6BB-4455-863F-3D8464C6C459}"/>
+    <hyperlink ref="D28" r:id="rId8" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5250&amp;type=calls" xr:uid="{1AD5704B-5B8E-4F5E-BB34-3125883F8723}"/>
+    <hyperlink ref="D29" r:id="rId9" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5275&amp;type=calls" xr:uid="{B7687B77-0CCA-4564-B9D4-BEFA9A858005}"/>
+    <hyperlink ref="D30" r:id="rId10" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5325&amp;type=calls" xr:uid="{5BF6234C-AB62-4CB7-9074-50977C8D0C66}"/>
+    <hyperlink ref="D31" r:id="rId11" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5400&amp;type=calls" xr:uid="{D164FF19-499D-431C-B87A-E115096D4042}"/>
+    <hyperlink ref="D70" r:id="rId12" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4875&amp;type=puts" xr:uid="{C2D0C148-03FF-4141-B32E-B57FFB60C2D3}"/>
+    <hyperlink ref="D71" r:id="rId13" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4900&amp;type=puts" xr:uid="{422D44FF-53FB-41C1-BA86-C5F43525995B}"/>
+    <hyperlink ref="D72" r:id="rId14" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4950&amp;type=puts" xr:uid="{AF4AA3BC-2E8B-4BE8-A31D-B8F1C06FDBCF}"/>
+    <hyperlink ref="D73" r:id="rId15" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=puts" xr:uid="{D3A454D1-027C-4AE1-B9C9-38C29A062E71}"/>
+    <hyperlink ref="D74" r:id="rId16" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5150&amp;type=puts" xr:uid="{DD572F5B-F6C0-4BEA-84A3-86F455B130D6}"/>
+    <hyperlink ref="D75" r:id="rId17" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=puts" xr:uid="{268017D8-DCE1-4E54-96F4-6961EE505905}"/>
+    <hyperlink ref="D76" r:id="rId18" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5250&amp;type=puts" xr:uid="{A5C067EF-D668-4C83-85FB-28654327F334}"/>
+    <hyperlink ref="D77" r:id="rId19" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5275&amp;type=puts" xr:uid="{7CA9F3BE-52C0-4C3A-AB44-005F2D7022EE}"/>
+    <hyperlink ref="D78" r:id="rId20" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5325&amp;type=puts" xr:uid="{CA20AB1C-F008-47DA-8BB6-FD336F6B15FF}"/>
+    <hyperlink ref="D79" r:id="rId21" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5400&amp;type=puts" xr:uid="{907FDF61-3F45-45D5-B59D-98526770B5CD}"/>
+    <hyperlink ref="D80" r:id="rId22" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4900&amp;type=puts" xr:uid="{57431703-1B49-4160-BF04-DE1539B2146F}"/>
+    <hyperlink ref="D81" r:id="rId23" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4950&amp;type=puts" xr:uid="{EBFCABBA-BD86-44E9-B0A2-3DB49F492A39}"/>
+    <hyperlink ref="D82" r:id="rId24" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=puts" xr:uid="{92C02337-06E3-4B51-804A-CDCB9D2C585B}"/>
+    <hyperlink ref="D83" r:id="rId25" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5050&amp;type=puts" xr:uid="{459623F6-BD96-4B6F-9342-1262B83929EB}"/>
+    <hyperlink ref="D84" r:id="rId26" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=puts" xr:uid="{6B147F98-241C-4943-9554-FCAB2460A3C3}"/>
+    <hyperlink ref="D85" r:id="rId27" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5350&amp;type=puts" xr:uid="{EDB0B8D5-2598-41B3-951F-1780625FB131}"/>
+    <hyperlink ref="D86" r:id="rId28" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5400&amp;type=puts" xr:uid="{BA7C6820-FD77-41AC-BDDE-BD8ECE2CCA08}"/>
+    <hyperlink ref="D87" r:id="rId29" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5450&amp;type=puts" xr:uid="{2966A9A4-15E3-4D67-AF7D-FA4A0269F42D}"/>
+    <hyperlink ref="D88" r:id="rId30" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5500&amp;type=puts" xr:uid="{E168BB08-EFC7-48F0-86A7-AB746A8C2503}"/>
+    <hyperlink ref="B32" r:id="rId31" display="https://finance.yahoo.com/quote/SPX250321C04900000" xr:uid="{CE2BBF0F-EE3E-410E-B8AB-5BCAC60B9F19}"/>
+    <hyperlink ref="D32" r:id="rId32" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4900&amp;type=calls" xr:uid="{B9139B97-4417-4647-A18D-8AC053D1B6E3}"/>
+    <hyperlink ref="D33" r:id="rId33" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4950&amp;type=calls" xr:uid="{2A28B9A8-E175-4C4D-BCDE-8AAD8515EB67}"/>
+    <hyperlink ref="D34" r:id="rId34" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=calls" xr:uid="{C847DC98-7BAE-4DDD-8EE1-98DB45F9813C}"/>
+    <hyperlink ref="D35" r:id="rId35" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5050&amp;type=calls" xr:uid="{532D15AF-1C89-4D2D-8F92-C9192A73E2D8}"/>
+    <hyperlink ref="D36" r:id="rId36" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=calls" xr:uid="{46AF80B5-DFD5-4211-B81C-E35EC14A61BC}"/>
+    <hyperlink ref="D37" r:id="rId37" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5350&amp;type=calls" xr:uid="{32C35CCB-86A6-441A-A724-357D7754A295}"/>
+    <hyperlink ref="D38" r:id="rId38" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5400&amp;type=calls" xr:uid="{A37158C1-8F14-45FF-9151-4821D857DA68}"/>
+    <hyperlink ref="D39" r:id="rId39" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5450&amp;type=calls" xr:uid="{935E4301-6E03-47D6-ACBF-2CBCB9229C3E}"/>
+    <hyperlink ref="D40" r:id="rId40" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5500&amp;type=calls" xr:uid="{888DADD6-8A6A-40D3-A864-393E1CDC9F0D}"/>
+    <hyperlink ref="B41" r:id="rId41" display="https://finance.yahoo.com/quote/SPX250620C05000000" xr:uid="{34FAFEA8-A95F-461A-B506-33B00B405F07}"/>
+    <hyperlink ref="D41" r:id="rId42" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=calls" xr:uid="{26F18556-8B82-4521-9364-6F3AAA27F8BF}"/>
+    <hyperlink ref="D42" r:id="rId43" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5150&amp;type=calls" xr:uid="{29D113B5-53F1-437E-8786-FFF468D622C0}"/>
+    <hyperlink ref="D43" r:id="rId44" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=calls" xr:uid="{E7B14096-1381-4613-9C4E-AC44AEDA5E09}"/>
+    <hyperlink ref="D44" r:id="rId45" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5300&amp;type=calls" xr:uid="{DB153BAE-EF76-44FC-A55F-251B9F8C1823}"/>
+    <hyperlink ref="D45" r:id="rId46" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5400&amp;type=calls" xr:uid="{681E5018-ECAB-414D-9C69-436B2E113F37}"/>
+    <hyperlink ref="D46" r:id="rId47" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5500&amp;type=calls" xr:uid="{6832237F-3E8E-478D-9F95-1A64BAD6EB3A}"/>
+    <hyperlink ref="D89" r:id="rId48" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=puts" xr:uid="{D0586B9B-53E5-4466-9201-95449272B26A}"/>
+    <hyperlink ref="D90" r:id="rId49" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5150&amp;type=puts" xr:uid="{495948C5-25DF-4023-A41D-8E0615CBD07C}"/>
+    <hyperlink ref="D91" r:id="rId50" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=puts" xr:uid="{619C7951-5918-4BD9-8F0E-8E29FDB5910B}"/>
+    <hyperlink ref="D92" r:id="rId51" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5300&amp;type=puts" xr:uid="{4A082141-14A2-4E77-B9FC-0E3C017AE326}"/>
+    <hyperlink ref="D93" r:id="rId52" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5400&amp;type=puts" xr:uid="{8F85E0A1-7416-4F18-96E7-82CA4BF8024F}"/>
+    <hyperlink ref="D94" r:id="rId53" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5500&amp;type=puts" xr:uid="{2D7721DA-01F0-4FF6-87F6-621F9F52ADD2}"/>
+    <hyperlink ref="B47" r:id="rId54" display="https://finance.yahoo.com/quote/SPX251219C05000000" xr:uid="{8EB5AFDE-DA77-4157-A456-67C7B88B15EB}"/>
+    <hyperlink ref="D47" r:id="rId55" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=calls" xr:uid="{084FF112-5C18-40C2-A977-BA5DF1E46D71}"/>
+    <hyperlink ref="D48" r:id="rId56" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5100&amp;type=calls" xr:uid="{93B54FC8-F04F-4D72-9DD3-F5FE74C213AA}"/>
+    <hyperlink ref="D49" r:id="rId57" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5600&amp;type=calls" xr:uid="{62487EBA-EA3E-4F45-8DFB-25212656B49C}"/>
+    <hyperlink ref="D95" r:id="rId58" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=puts" xr:uid="{35327AEA-8CDF-4D55-AE0C-54B5144CE2A9}"/>
+    <hyperlink ref="D96" r:id="rId59" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5100&amp;type=puts" xr:uid="{C0332CE2-8760-4F27-9337-58B66A884E55}"/>
+    <hyperlink ref="D97" r:id="rId60" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5600&amp;type=puts" xr:uid="{AF266EB5-5DD8-477D-A3F1-5158EE8137DC}"/>
+    <hyperlink ref="D2" r:id="rId61" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=calls" xr:uid="{02A4E672-6AC2-4A09-92DA-945D7B1C2244}"/>
+    <hyperlink ref="D3" r:id="rId62" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5050&amp;type=calls" xr:uid="{CCB7B3CD-DB5B-46E3-87C2-A0C3144CB1A1}"/>
+    <hyperlink ref="D4" r:id="rId63" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5150&amp;type=calls" xr:uid="{38CF525E-60F3-4ABC-AD7F-67BFE5D2DFC6}"/>
+    <hyperlink ref="D5" r:id="rId64" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5160&amp;type=calls" xr:uid="{BAE65993-BE02-4715-8046-5AC86882C369}"/>
+    <hyperlink ref="D6" r:id="rId65" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5170&amp;type=calls" xr:uid="{CA5948E1-8C8A-4B64-A03B-C41A9C41A0EA}"/>
+    <hyperlink ref="D7" r:id="rId66" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5175&amp;type=calls" xr:uid="{EC8CE623-3261-4FA8-8F03-D907BBDF6E8D}"/>
+    <hyperlink ref="D8" r:id="rId67" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5185&amp;type=calls" xr:uid="{A0152674-E7FD-45DB-AEE4-B8E291D253D9}"/>
+    <hyperlink ref="D9" r:id="rId68" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5205&amp;type=calls" xr:uid="{E2105CA1-670B-406C-B3F2-14863ADACAAE}"/>
+    <hyperlink ref="D10" r:id="rId69" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5210&amp;type=calls" xr:uid="{077AE911-E591-4111-9209-02C78242A71B}"/>
+    <hyperlink ref="D11" r:id="rId70" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5300&amp;type=calls" xr:uid="{128DF316-8013-4B51-A50F-7F1DEBA21683}"/>
+    <hyperlink ref="B50" r:id="rId71" display="https://finance.yahoo.com/quote/SPXW240621P05000000" xr:uid="{5DE0B883-F289-4240-AA66-D57296AF2FDD}"/>
+    <hyperlink ref="D50" r:id="rId72" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=puts" xr:uid="{9848F6AA-033C-46AF-ADEB-73ADB5F17094}"/>
+    <hyperlink ref="D51" r:id="rId73" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5050&amp;type=puts" xr:uid="{CFFEA65C-8336-4560-9AC2-69A573FE9F9A}"/>
+    <hyperlink ref="D52" r:id="rId74" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5150&amp;type=puts" xr:uid="{31E38E95-7705-4D53-9746-AFB338616E75}"/>
+    <hyperlink ref="D53" r:id="rId75" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5160&amp;type=puts" xr:uid="{D407DE2B-105A-4849-A822-5110E9165BCE}"/>
+    <hyperlink ref="D54" r:id="rId76" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5170&amp;type=puts" xr:uid="{06FF7DF3-322A-4811-9D31-2DD9C7170609}"/>
+    <hyperlink ref="D55" r:id="rId77" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5175&amp;type=puts" xr:uid="{568333F4-D264-4E6F-822F-74BD1A31620C}"/>
+    <hyperlink ref="D56" r:id="rId78" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5185&amp;type=puts" xr:uid="{DEF4C299-0913-4BE0-8181-E5DBD0178E66}"/>
+    <hyperlink ref="D57" r:id="rId79" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5205&amp;type=puts" xr:uid="{29EE22D1-C2A8-43BF-AE5A-CA235B18FC69}"/>
+    <hyperlink ref="D58" r:id="rId80" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5210&amp;type=puts" xr:uid="{13450809-28B6-489E-8A38-218B1E0A0688}"/>
+    <hyperlink ref="D59" r:id="rId81" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5300&amp;type=puts" xr:uid="{012A6C26-2A77-4077-A663-AB9431A96724}"/>
+    <hyperlink ref="D12" r:id="rId82" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4900&amp;type=calls" xr:uid="{084D9E44-7549-482D-A2E4-E7A4CA759256}"/>
+    <hyperlink ref="D13" r:id="rId83" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4950&amp;type=calls" xr:uid="{F612DA28-D988-4A82-94FF-3A705997D865}"/>
+    <hyperlink ref="D14" r:id="rId84" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=calls" xr:uid="{D0831D7E-1B3C-4E6B-9ADA-A8EA8E9128CC}"/>
+    <hyperlink ref="D15" r:id="rId85" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5075&amp;type=calls" xr:uid="{B740FE28-B4FD-469E-ACE1-893ABC259F4E}"/>
+    <hyperlink ref="D16" r:id="rId86" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5100&amp;type=calls" xr:uid="{B314D517-CD28-442C-9571-C5F12CAC170A}"/>
+    <hyperlink ref="D17" r:id="rId87" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=calls" xr:uid="{FA98ED4D-4AF8-4A95-8CA0-5B486BF400B3}"/>
+    <hyperlink ref="D18" r:id="rId88" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5225&amp;type=calls" xr:uid="{ADDB2113-0A48-4760-9144-25C43CC90FD1}"/>
+    <hyperlink ref="D19" r:id="rId89" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5250&amp;type=calls" xr:uid="{3DFCEB51-7A38-4D5B-B2D5-6AC4B038EA2A}"/>
+    <hyperlink ref="D20" r:id="rId90" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5300&amp;type=calls" xr:uid="{87B6572D-05CA-480F-BB3F-0355184557FE}"/>
+    <hyperlink ref="D21" r:id="rId91" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5350&amp;type=calls" xr:uid="{1B65E679-1415-4FE5-B978-8272E3DC7901}"/>
+    <hyperlink ref="B60" r:id="rId92" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{64647BDE-3A56-48B5-B689-745D8D2C4BEC}"/>
+    <hyperlink ref="D60" r:id="rId93" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4900&amp;type=puts" xr:uid="{EE4AB341-4AB4-495F-9BE3-0D18F32607F2}"/>
+    <hyperlink ref="D61" r:id="rId94" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=4950&amp;type=puts" xr:uid="{D2B14B90-1D82-44E9-A636-65965D3DBDB5}"/>
+    <hyperlink ref="D62" r:id="rId95" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5000&amp;type=puts" xr:uid="{A25907DE-9D57-4DFF-BB79-C8FE761E4191}"/>
+    <hyperlink ref="D63" r:id="rId96" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5075&amp;type=puts" xr:uid="{17B9F892-82E1-4285-B651-637C3A73316B}"/>
+    <hyperlink ref="D64" r:id="rId97" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5100&amp;type=puts" xr:uid="{E8D4ECBB-1B61-47C8-BB53-90167C626F1D}"/>
+    <hyperlink ref="D65" r:id="rId98" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5200&amp;type=puts" xr:uid="{81D8FB9E-9F11-4065-AC38-F238FAE5D9B7}"/>
+    <hyperlink ref="D66" r:id="rId99" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5225&amp;type=puts" xr:uid="{88310D84-16B9-47F6-86B9-075CD5B0862B}"/>
+    <hyperlink ref="D67" r:id="rId100" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5250&amp;type=puts" xr:uid="{9D65EF35-018C-40FE-BE1A-BEFB2B5241CD}"/>
+    <hyperlink ref="D68" r:id="rId101" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5300&amp;type=puts" xr:uid="{8F40E891-6280-4EAE-A2F7-5495DD707785}"/>
+    <hyperlink ref="D69" r:id="rId102" display="https://finance.yahoo.com/quote/%5ESPX/options?straddle=false&amp;strike=5350&amp;type=puts" xr:uid="{08A714AC-6A0F-4841-B24C-CF63947C230A}"/>
+    <hyperlink ref="B23:B79" r:id="rId103" display="https://finance.yahoo.com/quote/SPX241220C04875000" xr:uid="{87AF16AF-DC63-4582-9EB1-27AC9E5C9988}"/>
+    <hyperlink ref="B61" r:id="rId104" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{9002F6FC-74C5-467A-93B3-D41F68F6331E}"/>
+    <hyperlink ref="B62" r:id="rId105" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{34C07DB7-50FF-431B-83B4-88D9BBA37B64}"/>
+    <hyperlink ref="B63" r:id="rId106" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{325EE115-5D08-49FD-9A01-3F36A304E383}"/>
+    <hyperlink ref="B64" r:id="rId107" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{F588C887-543D-4E14-B192-502C104EBB40}"/>
+    <hyperlink ref="B65" r:id="rId108" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{20B267AC-58DB-4269-922D-13323574E0B9}"/>
+    <hyperlink ref="B66" r:id="rId109" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{5F8D6875-EC69-4A22-AD1A-21A1113C68BE}"/>
+    <hyperlink ref="B67" r:id="rId110" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{ABE9ED28-84DD-42E9-8C39-9DD93777066F}"/>
+    <hyperlink ref="B68" r:id="rId111" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{7BBEC1C9-8FF1-4F9C-8F3B-F314AB890041}"/>
+    <hyperlink ref="B69" r:id="rId112" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{F9091DBC-4D4A-4CBE-B5F4-936D2815A00A}"/>
+    <hyperlink ref="B12" r:id="rId113" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{1C6790DB-8B36-4F50-A035-C325873D6321}"/>
+    <hyperlink ref="B13:B21" r:id="rId114" display="https://finance.yahoo.com/quote/SPX240920P04900000" xr:uid="{DFF1797C-0162-46B6-B4F4-CAE3982BB960}"/>
+    <hyperlink ref="B51:B59" r:id="rId115" display="https://finance.yahoo.com/quote/SPXW240621P05000000" xr:uid="{43C43355-A967-4D4D-A942-8576F2426BE2}"/>
+    <hyperlink ref="B2" r:id="rId116" display="https://finance.yahoo.com/quote/SPXW240621P05000000" xr:uid="{CC191475-3E18-430E-A4C7-EF35478B5825}"/>
+    <hyperlink ref="B3:B11" r:id="rId117" display="https://finance.yahoo.com/quote/SPXW240621P05000000" xr:uid="{F88CF5FE-08CC-4370-A10B-865211306EA6}"/>
+    <hyperlink ref="B33:B40" r:id="rId118" display="https://finance.yahoo.com/quote/SPX250321C04900000" xr:uid="{114BD662-6BC7-4366-A727-CA348B3EF120}"/>
+    <hyperlink ref="B80" r:id="rId119" display="https://finance.yahoo.com/quote/SPX250321C04900000" xr:uid="{2C80F604-B1A1-4432-8DD5-F8311CF8F55A}"/>
+    <hyperlink ref="B81:B88" r:id="rId120" display="https://finance.yahoo.com/quote/SPX250321C04900000" xr:uid="{049C46AE-A04F-45C8-8579-0CB975DFC3BA}"/>
+    <hyperlink ref="B42:B46" r:id="rId121" display="https://finance.yahoo.com/quote/SPX250620C05000000" xr:uid="{1C557B6C-834C-4D2A-8E58-A36BC4F86FA2}"/>
+    <hyperlink ref="B89" r:id="rId122" display="https://finance.yahoo.com/quote/SPX250620C05000000" xr:uid="{47C01067-2A1B-4884-A608-AC73F8663136}"/>
+    <hyperlink ref="B90:B94" r:id="rId123" display="https://finance.yahoo.com/quote/SPX250620C05000000" xr:uid="{990100A6-D1BC-4743-960E-4BD6E719262F}"/>
+    <hyperlink ref="B48:B49" r:id="rId124" display="https://finance.yahoo.com/quote/SPX251219C05000000" xr:uid="{EE213926-E417-4EBB-A9A2-D951F0E8EA61}"/>
+    <hyperlink ref="B95" r:id="rId125" display="https://finance.yahoo.com/quote/SPX251219C05000000" xr:uid="{2E702A4F-FB65-441C-B637-3DECD036B7F7}"/>
+    <hyperlink ref="B96:B97" r:id="rId126" display="https://finance.yahoo.com/quote/SPX251219C05000000" xr:uid="{724DC7E0-D905-4C36-AFCE-53020C1E8516}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4947,7 +4891,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -4962,6 +4906,7 @@
     <col min="8" max="8" width="11.8984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4990,7 +4935,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
         <v>14</v>
@@ -5060,8 +5005,8 @@
       <c r="O2" s="15">
         <v>5.2917417003944478E-2</v>
       </c>
-      <c r="P2" t="s">
-        <v>18</v>
+      <c r="P2" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5110,8 +5055,8 @@
       <c r="O3" s="15">
         <v>5.2917417003944478E-2</v>
       </c>
-      <c r="P3" t="s">
-        <v>18</v>
+      <c r="P3" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5160,8 +5105,8 @@
       <c r="O4" s="15">
         <v>5.2917417003944478E-2</v>
       </c>
-      <c r="P4" t="s">
-        <v>18</v>
+      <c r="P4" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5210,8 +5155,8 @@
       <c r="O5" s="15">
         <v>5.2917417003944478E-2</v>
       </c>
-      <c r="P5" t="s">
-        <v>18</v>
+      <c r="P5" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -5260,8 +5205,8 @@
       <c r="O6" s="15">
         <v>5.2917417003944478E-2</v>
       </c>
-      <c r="P6" t="s">
-        <v>18</v>
+      <c r="P6" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5310,8 +5255,8 @@
       <c r="O7" s="15">
         <v>5.2310132277010979E-2</v>
       </c>
-      <c r="P7" t="s">
-        <v>19</v>
+      <c r="P7" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5360,8 +5305,8 @@
       <c r="O8" s="15">
         <v>5.2310132277010979E-2</v>
       </c>
-      <c r="P8" t="s">
-        <v>19</v>
+      <c r="P8" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -5410,8 +5355,8 @@
       <c r="O9" s="15">
         <v>5.2310132277010979E-2</v>
       </c>
-      <c r="P9" t="s">
-        <v>19</v>
+      <c r="P9" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -5460,8 +5405,8 @@
       <c r="O10" s="15">
         <v>5.2310132277010979E-2</v>
       </c>
-      <c r="P10" t="s">
-        <v>19</v>
+      <c r="P10" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5510,8 +5455,8 @@
       <c r="O11" s="15">
         <v>5.2310132277010979E-2</v>
       </c>
-      <c r="P11" t="s">
-        <v>19</v>
+      <c r="P11" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -5560,8 +5505,8 @@
       <c r="O12" s="15">
         <v>5.1525748731924705E-2</v>
       </c>
-      <c r="P12" t="s">
-        <v>20</v>
+      <c r="P12" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -5610,8 +5555,8 @@
       <c r="O13" s="15">
         <v>5.1525748731924705E-2</v>
       </c>
-      <c r="P13" t="s">
-        <v>20</v>
+      <c r="P13" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -5660,8 +5605,8 @@
       <c r="O14" s="15">
         <v>5.1525748731924705E-2</v>
       </c>
-      <c r="P14" t="s">
-        <v>20</v>
+      <c r="P14" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5710,8 +5655,8 @@
       <c r="O15" s="15">
         <v>5.1525748731924705E-2</v>
       </c>
-      <c r="P15" t="s">
-        <v>20</v>
+      <c r="P15" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -5760,8 +5705,8 @@
       <c r="O16" s="15">
         <v>5.1525748731924705E-2</v>
       </c>
-      <c r="P16" t="s">
-        <v>20</v>
+      <c r="P16" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -5810,7 +5755,7 @@
       <c r="O17" s="15">
         <v>5.0618083580326718E-2</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5860,7 +5805,7 @@
       <c r="O18" s="15">
         <v>5.0618083580326718E-2</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5910,7 +5855,7 @@
       <c r="O19" s="15">
         <v>5.0618083580326718E-2</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5960,7 +5905,7 @@
       <c r="O20" s="15">
         <v>5.0618083580326718E-2</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6010,7 +5955,7 @@
       <c r="O21" s="15">
         <v>5.0618083580326718E-2</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="16" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6060,8 +6005,8 @@
       <c r="O22" s="15">
         <v>4.949167664058407E-2</v>
       </c>
-      <c r="P22" t="s">
-        <v>22</v>
+      <c r="P22" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -6110,8 +6055,8 @@
       <c r="O23" s="15">
         <v>4.949167664058407E-2</v>
       </c>
-      <c r="P23" t="s">
-        <v>22</v>
+      <c r="P23" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -6160,8 +6105,8 @@
       <c r="O24" s="15">
         <v>4.949167664058407E-2</v>
       </c>
-      <c r="P24" t="s">
-        <v>22</v>
+      <c r="P24" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -6210,8 +6155,8 @@
       <c r="O25" s="15">
         <v>4.949167664058407E-2</v>
       </c>
-      <c r="P25" t="s">
-        <v>22</v>
+      <c r="P25" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -6260,8 +6205,8 @@
       <c r="O26" s="15">
         <v>4.949167664058407E-2</v>
       </c>
-      <c r="P26" t="s">
-        <v>22</v>
+      <c r="P26" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="18">
@@ -6715,8 +6660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A60A63-F2C2-49CC-8ECE-1B248A30F922}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -6727,16 +6672,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6750,7 +6695,7 @@
         <v>45394</v>
       </c>
       <c r="D2" s="12">
-        <f>(A2-C2)/365.25</f>
+        <f t="shared" ref="D2:D7" si="0">(A2-C2)/365.25</f>
         <v>0.19164955509924708</v>
       </c>
     </row>
@@ -6765,7 +6710,7 @@
         <v>45394</v>
       </c>
       <c r="D3" s="12">
-        <f>(A3-C3)/365.25</f>
+        <f t="shared" si="0"/>
         <v>0.44079397672826831</v>
       </c>
     </row>
@@ -6780,7 +6725,7 @@
         <v>45394</v>
       </c>
       <c r="D4" s="12">
-        <f>(A4-C4)/365.25</f>
+        <f t="shared" si="0"/>
         <v>0.68993839835728954</v>
       </c>
     </row>
@@ -6795,7 +6740,7 @@
         <v>45394</v>
       </c>
       <c r="D5" s="12">
-        <f>(A5-C5)/365.25</f>
+        <f t="shared" si="0"/>
         <v>0.93908281998631071</v>
       </c>
     </row>
@@ -6810,7 +6755,7 @@
         <v>45394</v>
       </c>
       <c r="D6" s="12">
-        <f>(A6-C6)/365.25</f>
+        <f t="shared" si="0"/>
         <v>1.1882272416153319</v>
       </c>
     </row>
@@ -6825,8 +6770,572 @@
         <v>45394</v>
       </c>
       <c r="D7" s="12">
-        <f>(A7-C7)/365.25</f>
+        <f t="shared" si="0"/>
         <v>1.6865160848733745</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396E27A7-8FEE-47F6-A0D2-F054D05E20EE}">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>4900</v>
+      </c>
+      <c r="B2">
+        <v>594.9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>3229</v>
+      </c>
+      <c r="F2">
+        <v>0.24970000000000001</v>
+      </c>
+      <c r="G2" s="13">
+        <v>45394</v>
+      </c>
+      <c r="H2" s="13">
+        <v>45737</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0.93908281998631071</v>
+      </c>
+      <c r="J2">
+        <v>4900</v>
+      </c>
+      <c r="K2">
+        <v>179.45</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1271</v>
+      </c>
+      <c r="N2">
+        <v>4061</v>
+      </c>
+      <c r="O2">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="P2">
+        <v>5.0618083580326718E-2</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>4950</v>
+      </c>
+      <c r="B3">
+        <v>559.15000000000009</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>652</v>
+      </c>
+      <c r="F3">
+        <v>0.2445</v>
+      </c>
+      <c r="G3" s="13">
+        <v>45394</v>
+      </c>
+      <c r="H3" s="13">
+        <v>45737</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.93908281998631071</v>
+      </c>
+      <c r="J3">
+        <v>4950</v>
+      </c>
+      <c r="K3">
+        <v>191.25</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>815</v>
+      </c>
+      <c r="O3">
+        <v>0.1389</v>
+      </c>
+      <c r="P3">
+        <v>5.0618083580326718E-2</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>5000</v>
+      </c>
+      <c r="B4">
+        <v>524.15000000000009</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>63</v>
+      </c>
+      <c r="E4">
+        <v>7048</v>
+      </c>
+      <c r="F4">
+        <v>0.2394</v>
+      </c>
+      <c r="G4" s="13">
+        <v>45394</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45737</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.93908281998631071</v>
+      </c>
+      <c r="J4">
+        <v>5000</v>
+      </c>
+      <c r="K4">
+        <v>203.8</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>513</v>
+      </c>
+      <c r="N4">
+        <v>6679</v>
+      </c>
+      <c r="O4">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="P4">
+        <v>5.0618083580326718E-2</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>5050</v>
+      </c>
+      <c r="B5">
+        <v>489.55</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2242</v>
+      </c>
+      <c r="F5">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="G5" s="13">
+        <v>45394</v>
+      </c>
+      <c r="H5" s="13">
+        <v>45737</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.93908281998631071</v>
+      </c>
+      <c r="J5">
+        <v>5050</v>
+      </c>
+      <c r="K5">
+        <v>217.25</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>19</v>
+      </c>
+      <c r="N5">
+        <v>5366</v>
+      </c>
+      <c r="O5">
+        <v>0.129</v>
+      </c>
+      <c r="P5">
+        <v>5.0618083580326718E-2</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>5200</v>
+      </c>
+      <c r="B6">
+        <v>392</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>302</v>
+      </c>
+      <c r="E6">
+        <v>8370</v>
+      </c>
+      <c r="F6">
+        <v>0.216</v>
+      </c>
+      <c r="G6" s="13">
+        <v>45394</v>
+      </c>
+      <c r="H6" s="13">
+        <v>45737</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.93908281998631071</v>
+      </c>
+      <c r="J6">
+        <v>5200</v>
+      </c>
+      <c r="K6">
+        <v>263</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>306</v>
+      </c>
+      <c r="N6">
+        <v>4150</v>
+      </c>
+      <c r="O6">
+        <v>0.1123</v>
+      </c>
+      <c r="P6">
+        <v>5.0618083580326718E-2</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>5350</v>
+      </c>
+      <c r="B7">
+        <v>304.60000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>62</v>
+      </c>
+      <c r="E7">
+        <v>2096</v>
+      </c>
+      <c r="F7">
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="G7" s="13">
+        <v>45394</v>
+      </c>
+      <c r="H7" s="13">
+        <v>45737</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.93908281998631071</v>
+      </c>
+      <c r="J7">
+        <v>5350</v>
+      </c>
+      <c r="K7">
+        <v>318.2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1062</v>
+      </c>
+      <c r="N7">
+        <v>466</v>
+      </c>
+      <c r="O7">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="P7">
+        <v>5.0618083580326718E-2</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>5400</v>
+      </c>
+      <c r="B8">
+        <v>277.89999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <v>1673</v>
+      </c>
+      <c r="F8">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="G8" s="13">
+        <v>45394</v>
+      </c>
+      <c r="H8" s="13">
+        <v>45737</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.93908281998631071</v>
+      </c>
+      <c r="J8">
+        <v>5400</v>
+      </c>
+      <c r="K8">
+        <v>339.1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>57</v>
+      </c>
+      <c r="N8">
+        <v>2496</v>
+      </c>
+      <c r="O8">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="P8">
+        <v>5.0618083580326718E-2</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>5450</v>
+      </c>
+      <c r="B9">
+        <v>252.5</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1940</v>
+      </c>
+      <c r="F9">
+        <v>0.1938</v>
+      </c>
+      <c r="G9" s="13">
+        <v>45394</v>
+      </c>
+      <c r="H9" s="13">
+        <v>45737</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.93908281998631071</v>
+      </c>
+      <c r="J9">
+        <v>5450</v>
+      </c>
+      <c r="K9">
+        <v>361.2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>866</v>
+      </c>
+      <c r="O9">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="P9">
+        <v>5.0618083580326718E-2</v>
+      </c>
+      <c r="Q9" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>5500</v>
+      </c>
+      <c r="B10">
+        <v>228.39999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1070</v>
+      </c>
+      <c r="E10">
+        <v>15778</v>
+      </c>
+      <c r="F10">
+        <v>0.1898</v>
+      </c>
+      <c r="G10" s="13">
+        <v>45394</v>
+      </c>
+      <c r="H10" s="13">
+        <v>45737</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.93908281998631071</v>
+      </c>
+      <c r="J10">
+        <v>5500</v>
+      </c>
+      <c r="K10">
+        <v>384.75</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>271</v>
+      </c>
+      <c r="N10">
+        <v>4279</v>
+      </c>
+      <c r="O10">
+        <v>5.45E-2</v>
+      </c>
+      <c r="P10">
+        <v>5.0618083580326718E-2</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
